--- a/Code/Results/Cases/Case_6_0/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_0/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.043522606807831</v>
+        <v>1.063917520961906</v>
       </c>
       <c r="D2">
-        <v>1.058616849866547</v>
+        <v>1.077442866887692</v>
       </c>
       <c r="E2">
-        <v>1.051819370410186</v>
+        <v>1.069923834828389</v>
       </c>
       <c r="F2">
-        <v>1.06276066701838</v>
+        <v>1.081775956837277</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.06728334251636</v>
+        <v>1.081875338482889</v>
       </c>
       <c r="J2">
-        <v>1.064475163688232</v>
+        <v>1.084341174661012</v>
       </c>
       <c r="K2">
-        <v>1.069315775341378</v>
+        <v>1.087919285007678</v>
       </c>
       <c r="L2">
-        <v>1.062601069784644</v>
+        <v>1.080487958762038</v>
       </c>
       <c r="M2">
-        <v>1.073409777057913</v>
+        <v>1.092202515165312</v>
       </c>
       <c r="N2">
-        <v>1.065986840517676</v>
+        <v>1.085881063504702</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.052090129090012</v>
+        <v>1.070994576546779</v>
       </c>
       <c r="D3">
-        <v>1.065565933204737</v>
+        <v>1.083301433009255</v>
       </c>
       <c r="E3">
-        <v>1.059375228988024</v>
+        <v>1.076205372814758</v>
       </c>
       <c r="F3">
-        <v>1.070505624861381</v>
+        <v>1.088276174598096</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.070612648708833</v>
+        <v>1.08509216407044</v>
       </c>
       <c r="J3">
-        <v>1.071254906786089</v>
+        <v>1.089720669127301</v>
       </c>
       <c r="K3">
-        <v>1.07542337565311</v>
+        <v>1.092968863459736</v>
       </c>
       <c r="L3">
-        <v>1.069300837812008</v>
+        <v>1.085947907663756</v>
       </c>
       <c r="M3">
-        <v>1.080309369565252</v>
+        <v>1.097891665703973</v>
       </c>
       <c r="N3">
-        <v>1.07277621162838</v>
+        <v>1.09126819747017</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.057451295608296</v>
+        <v>1.075444352795071</v>
       </c>
       <c r="D4">
-        <v>1.069916195365703</v>
+        <v>1.086986948591398</v>
       </c>
       <c r="E4">
-        <v>1.064104665961985</v>
+        <v>1.080155484279792</v>
       </c>
       <c r="F4">
-        <v>1.075356454816125</v>
+        <v>1.092366988588913</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.072681267721186</v>
+        <v>1.087102893701661</v>
       </c>
       <c r="J4">
-        <v>1.075491419831258</v>
+        <v>1.09309702205754</v>
       </c>
       <c r="K4">
-        <v>1.079238129884327</v>
+        <v>1.096137736006817</v>
       </c>
       <c r="L4">
-        <v>1.073486393829088</v>
+        <v>1.08937397301759</v>
       </c>
       <c r="M4">
-        <v>1.084623128821181</v>
+        <v>1.101465181153023</v>
       </c>
       <c r="N4">
-        <v>1.077018741008008</v>
+        <v>1.094649345208842</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.059664141085136</v>
+        <v>1.077285641294782</v>
       </c>
       <c r="D5">
-        <v>1.071712122323116</v>
+        <v>1.088512377519552</v>
       </c>
       <c r="E5">
-        <v>1.066057000614103</v>
+        <v>1.081790089301535</v>
       </c>
       <c r="F5">
-        <v>1.077359617950182</v>
+        <v>1.094060580248875</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.073531512595244</v>
+        <v>1.0879320315904</v>
       </c>
       <c r="J5">
-        <v>1.077238575172908</v>
+        <v>1.09449264118899</v>
       </c>
       <c r="K5">
-        <v>1.080810908182125</v>
+        <v>1.097447483902388</v>
       </c>
       <c r="L5">
-        <v>1.075212293621511</v>
+        <v>1.090789949414374</v>
       </c>
       <c r="M5">
-        <v>1.086402691208406</v>
+        <v>1.10294296687785</v>
       </c>
       <c r="N5">
-        <v>1.078768377510645</v>
+        <v>1.096046946279539</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.060033358394256</v>
+        <v>1.07759312257164</v>
       </c>
       <c r="D6">
-        <v>1.072011792923009</v>
+        <v>1.08876713357427</v>
       </c>
       <c r="E6">
-        <v>1.066382763059881</v>
+        <v>1.082063058947627</v>
       </c>
       <c r="F6">
-        <v>1.077693903415099</v>
+        <v>1.09434344508174</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.073673164903869</v>
+        <v>1.088070320400161</v>
       </c>
       <c r="J6">
-        <v>1.077530002295177</v>
+        <v>1.094725610103198</v>
       </c>
       <c r="K6">
-        <v>1.081073222441439</v>
+        <v>1.09766611175697</v>
       </c>
       <c r="L6">
-        <v>1.075500161008698</v>
+        <v>1.091026305188527</v>
       </c>
       <c r="M6">
-        <v>1.08669955583662</v>
+        <v>1.103189690976143</v>
       </c>
       <c r="N6">
-        <v>1.079060218492855</v>
+        <v>1.096280246036327</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.057481021406614</v>
+        <v>1.075469069647262</v>
       </c>
       <c r="D7">
-        <v>1.069940319375095</v>
+        <v>1.087007424000755</v>
       </c>
       <c r="E7">
-        <v>1.064130891398176</v>
+        <v>1.080177426451424</v>
       </c>
       <c r="F7">
-        <v>1.075383360197918</v>
+        <v>1.09238971955673</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.07269270358839</v>
+        <v>1.087114035255995</v>
       </c>
       <c r="J7">
-        <v>1.075514895831593</v>
+        <v>1.093115762351162</v>
       </c>
       <c r="K7">
-        <v>1.079259264611838</v>
+        <v>1.096155323670357</v>
       </c>
       <c r="L7">
-        <v>1.073509585184601</v>
+        <v>1.089392987429453</v>
       </c>
       <c r="M7">
-        <v>1.084647038102838</v>
+        <v>1.101485022132236</v>
       </c>
       <c r="N7">
-        <v>1.077042250346956</v>
+        <v>1.094668112115831</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.046457573530811</v>
+        <v>1.066337084345353</v>
       </c>
       <c r="D8">
-        <v>1.060996932661399</v>
+        <v>1.079445406148797</v>
       </c>
       <c r="E8">
-        <v>1.05440744139362</v>
+        <v>1.072071276274797</v>
       </c>
       <c r="F8">
-        <v>1.065412861830721</v>
+        <v>1.083997483836635</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.068426934479075</v>
+        <v>1.082977616393169</v>
       </c>
       <c r="J8">
-        <v>1.066798912311249</v>
+        <v>1.086181615333556</v>
       </c>
       <c r="K8">
-        <v>1.071409504891707</v>
+        <v>1.089646935596278</v>
       </c>
       <c r="L8">
-        <v>1.064897611774336</v>
+        <v>1.082356087815152</v>
       </c>
       <c r="M8">
-        <v>1.075774095713499</v>
+        <v>1.094148298620049</v>
       </c>
       <c r="N8">
-        <v>1.068313889130276</v>
+        <v>1.087724117814102</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.025496308700259</v>
+        <v>1.049173197338372</v>
       </c>
       <c r="D9">
-        <v>1.044011566083514</v>
+        <v>1.065250816648028</v>
       </c>
       <c r="E9">
-        <v>1.035933216587239</v>
+        <v>1.056842395585288</v>
       </c>
       <c r="F9">
-        <v>1.046494573216634</v>
+        <v>1.068257075925303</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.060198049912566</v>
+        <v>1.075108665344118</v>
       </c>
       <c r="J9">
-        <v>1.050179773287635</v>
+        <v>1.073101505167303</v>
       </c>
       <c r="K9">
-        <v>1.056428778506285</v>
+        <v>1.07736707176181</v>
       </c>
       <c r="L9">
-        <v>1.048469014386991</v>
+        <v>1.069075968986625</v>
       </c>
       <c r="M9">
-        <v>1.058875802757498</v>
+        <v>1.080331950939015</v>
       </c>
       <c r="N9">
-        <v>1.051671149023008</v>
+        <v>1.074625432391104</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.010266356698397</v>
+        <v>1.03688494492713</v>
       </c>
       <c r="D10">
-        <v>1.031693525880347</v>
+        <v>1.055106122212798</v>
       </c>
       <c r="E10">
-        <v>1.022527554055826</v>
+        <v>1.045948381448728</v>
       </c>
       <c r="F10">
-        <v>1.032784868151724</v>
+        <v>1.057015042706937</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.054143327186529</v>
+        <v>1.069413419816337</v>
       </c>
       <c r="J10">
-        <v>1.038078490148367</v>
+        <v>1.063707877480799</v>
       </c>
       <c r="K10">
-        <v>1.045513189122012</v>
+        <v>1.068546931538644</v>
       </c>
       <c r="L10">
-        <v>1.036501640067057</v>
+        <v>1.059534787022424</v>
       </c>
       <c r="M10">
-        <v>1.046586380261236</v>
+        <v>1.07042590905531</v>
       </c>
       <c r="N10">
-        <v>1.039552680673645</v>
+        <v>1.065218464675821</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.003313277785946</v>
+        <v>1.031331068822434</v>
       </c>
       <c r="D11">
-        <v>1.026077740287268</v>
+        <v>1.050526576016771</v>
       </c>
       <c r="E11">
-        <v>1.01641331769826</v>
+        <v>1.041027842265094</v>
       </c>
       <c r="F11">
-        <v>1.026536506440646</v>
+        <v>1.051941623880647</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.051362271311598</v>
+        <v>1.06682541749095</v>
       </c>
       <c r="J11">
-        <v>1.032548867178865</v>
+        <v>1.059456125929903</v>
       </c>
       <c r="K11">
-        <v>1.040524073671269</v>
+        <v>1.064554647146064</v>
       </c>
       <c r="L11">
-        <v>1.031032201701865</v>
+        <v>1.055215401644341</v>
       </c>
       <c r="M11">
-        <v>1.040974753634619</v>
+        <v>1.065946252948628</v>
       </c>
       <c r="N11">
-        <v>1.03401520500527</v>
+        <v>1.06096067515004</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.000670580711196</v>
+        <v>1.029229948330475</v>
       </c>
       <c r="D12">
-        <v>1.023944738626964</v>
+        <v>1.048795012609354</v>
       </c>
       <c r="E12">
-        <v>1.01409053150522</v>
+        <v>1.039166905706366</v>
       </c>
       <c r="F12">
-        <v>1.024163470358589</v>
+        <v>1.050023521628312</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.050302848393217</v>
+        <v>1.065844304853562</v>
       </c>
       <c r="J12">
-        <v>1.030446587446888</v>
+        <v>1.057846769545717</v>
       </c>
       <c r="K12">
-        <v>1.038627137082085</v>
+        <v>1.06304350474241</v>
       </c>
       <c r="L12">
-        <v>1.028952668082576</v>
+        <v>1.053580325869596</v>
       </c>
       <c r="M12">
-        <v>1.038841930200728</v>
+        <v>1.064251250282257</v>
       </c>
       <c r="N12">
-        <v>1.031909939794938</v>
+        <v>1.059349033295192</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.001240273998681</v>
+        <v>1.029682427822805</v>
       </c>
       <c r="D13">
-        <v>1.024404487195045</v>
+        <v>1.049167862309218</v>
       </c>
       <c r="E13">
-        <v>1.014591208396149</v>
+        <v>1.039567633155747</v>
       </c>
       <c r="F13">
-        <v>1.024674946505407</v>
+        <v>1.050436529371448</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.050531337689645</v>
+        <v>1.06605567945204</v>
       </c>
       <c r="J13">
-        <v>1.030899806405291</v>
+        <v>1.058193384018691</v>
       </c>
       <c r="K13">
-        <v>1.039036093225316</v>
+        <v>1.063368966058231</v>
       </c>
       <c r="L13">
-        <v>1.029400989139875</v>
+        <v>1.053932484861441</v>
       </c>
       <c r="M13">
-        <v>1.039301704713998</v>
+        <v>1.064616282586332</v>
       </c>
       <c r="N13">
-        <v>1.032363802376247</v>
+        <v>1.059696140000475</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.003096095136737</v>
+        <v>1.031158187740681</v>
       </c>
       <c r="D14">
-        <v>1.025902415242803</v>
+        <v>1.050384082173942</v>
       </c>
       <c r="E14">
-        <v>1.016222402833866</v>
+        <v>1.040874711172062</v>
       </c>
       <c r="F14">
-        <v>1.026341447041525</v>
+        <v>1.051783775511118</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.051275253690225</v>
+        <v>1.066744731897626</v>
       </c>
       <c r="J14">
-        <v>1.032376108605702</v>
+        <v>1.059323724207066</v>
       </c>
       <c r="K14">
-        <v>1.040368192294769</v>
+        <v>1.064430325350652</v>
       </c>
       <c r="L14">
-        <v>1.030861314965857</v>
+        <v>1.055080886345169</v>
       </c>
       <c r="M14">
-        <v>1.040799472032558</v>
+        <v>1.065806792460008</v>
       </c>
       <c r="N14">
-        <v>1.033842201095117</v>
+        <v>1.06082808540157</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.004231373860725</v>
+        <v>1.032062293921588</v>
       </c>
       <c r="D15">
-        <v>1.026818950941099</v>
+        <v>1.051129313456119</v>
       </c>
       <c r="E15">
-        <v>1.017220417276906</v>
+        <v>1.041675556298756</v>
       </c>
       <c r="F15">
-        <v>1.027361155890834</v>
+        <v>1.052609317635321</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.051730023782318</v>
+        <v>1.067166606565661</v>
       </c>
       <c r="J15">
-        <v>1.033279145729297</v>
+        <v>1.060016103711515</v>
       </c>
       <c r="K15">
-        <v>1.041183003772131</v>
+        <v>1.065080451975734</v>
       </c>
       <c r="L15">
-        <v>1.031754562311089</v>
+        <v>1.055784313774417</v>
       </c>
       <c r="M15">
-        <v>1.041715723344224</v>
+        <v>1.066536110222777</v>
       </c>
       <c r="N15">
-        <v>1.034746520635007</v>
+        <v>1.061521448164332</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.010719754122336</v>
+        <v>1.037248367621346</v>
       </c>
       <c r="D16">
-        <v>1.032059902661843</v>
+        <v>1.055405913089545</v>
       </c>
       <c r="E16">
-        <v>1.022926390578851</v>
+        <v>1.046270435637817</v>
       </c>
       <c r="F16">
-        <v>1.033192549264673</v>
+        <v>1.057347192756591</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.05432433717129</v>
+        <v>1.069582484597839</v>
       </c>
       <c r="J16">
-        <v>1.038438976210424</v>
+        <v>1.06398597319402</v>
       </c>
       <c r="K16">
-        <v>1.045838415509373</v>
+        <v>1.068808055436981</v>
       </c>
       <c r="L16">
-        <v>1.036858183129141</v>
+        <v>1.059817289620458</v>
       </c>
       <c r="M16">
-        <v>1.046952297003083</v>
+        <v>1.070718995871928</v>
       </c>
       <c r="N16">
-        <v>1.039913678667259</v>
+        <v>1.065496955316852</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.014689732348296</v>
+        <v>1.040436965146027</v>
       </c>
       <c r="D17">
-        <v>1.035268833206963</v>
+        <v>1.058036854098242</v>
       </c>
       <c r="E17">
-        <v>1.026419321184505</v>
+        <v>1.049096445481124</v>
       </c>
       <c r="F17">
-        <v>1.036763452139493</v>
+        <v>1.060262280907017</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.055907394889452</v>
+        <v>1.07106425768615</v>
       </c>
       <c r="J17">
-        <v>1.041594879313224</v>
+        <v>1.066425242730247</v>
       </c>
       <c r="K17">
-        <v>1.048685495025015</v>
+        <v>1.071098449619577</v>
       </c>
       <c r="L17">
-        <v>1.039979455718164</v>
+        <v>1.062295118618547</v>
       </c>
       <c r="M17">
-        <v>1.050156192388465</v>
+        <v>1.073290213027099</v>
       </c>
       <c r="N17">
-        <v>1.043074063514451</v>
+        <v>1.067939688895609</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.016971236916944</v>
+        <v>1.042274573602041</v>
       </c>
       <c r="D18">
-        <v>1.03711369219251</v>
+        <v>1.059553591466403</v>
       </c>
       <c r="E18">
-        <v>1.028427217082802</v>
+        <v>1.050725384935423</v>
       </c>
       <c r="F18">
-        <v>1.038816593718417</v>
+        <v>1.061942971167512</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.056815580008488</v>
+        <v>1.071916897071858</v>
       </c>
       <c r="J18">
-        <v>1.043408075591675</v>
+        <v>1.067830425589359</v>
       </c>
       <c r="K18">
-        <v>1.050321135910719</v>
+        <v>1.072417859208567</v>
       </c>
       <c r="L18">
-        <v>1.041772660367905</v>
+        <v>1.063722434058096</v>
       </c>
       <c r="M18">
-        <v>1.05199732997129</v>
+        <v>1.07477178366266</v>
       </c>
       <c r="N18">
-        <v>1.044889834739594</v>
+        <v>1.069346867275558</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.017743555912898</v>
+        <v>1.042897467030643</v>
       </c>
       <c r="D19">
-        <v>1.037738316729127</v>
+        <v>1.060067802357046</v>
       </c>
       <c r="E19">
-        <v>1.029107003422829</v>
+        <v>1.051277592654954</v>
       </c>
       <c r="F19">
-        <v>1.039511769562016</v>
+        <v>1.062512790904752</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.057122741009178</v>
+        <v>1.072205690934125</v>
       </c>
       <c r="J19">
-        <v>1.044021783152409</v>
+        <v>1.068306638904819</v>
       </c>
       <c r="K19">
-        <v>1.050874724624725</v>
+        <v>1.072865001789903</v>
       </c>
       <c r="L19">
-        <v>1.04237958489491</v>
+        <v>1.064206134213172</v>
       </c>
       <c r="M19">
-        <v>1.052620556128976</v>
+        <v>1.075273948188935</v>
       </c>
       <c r="N19">
-        <v>1.045504413835458</v>
+        <v>1.069823756868547</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.014267361538368</v>
+        <v>1.040097181490249</v>
       </c>
       <c r="D20">
-        <v>1.034927354669152</v>
+        <v>1.057756441679525</v>
       </c>
       <c r="E20">
-        <v>1.026047646059799</v>
+        <v>1.048795268838511</v>
       </c>
       <c r="F20">
-        <v>1.036383435947243</v>
+        <v>1.059951568771975</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.055739135182215</v>
+        <v>1.07090649310183</v>
       </c>
       <c r="J20">
-        <v>1.041259166743804</v>
+        <v>1.066165369155199</v>
       </c>
       <c r="K20">
-        <v>1.048382646453843</v>
+        <v>1.070854437880682</v>
       </c>
       <c r="L20">
-        <v>1.039647436786735</v>
+        <v>1.062031145302064</v>
       </c>
       <c r="M20">
-        <v>1.049815336084482</v>
+        <v>1.073016242798607</v>
       </c>
       <c r="N20">
-        <v>1.042737874194676</v>
+        <v>1.067679446270277</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.002551313315854</v>
+        <v>1.030724694073881</v>
       </c>
       <c r="D21">
-        <v>1.025462652917655</v>
+        <v>1.050026799277087</v>
       </c>
       <c r="E21">
-        <v>1.015743529380115</v>
+        <v>1.040490749694899</v>
       </c>
       <c r="F21">
-        <v>1.025852189199411</v>
+        <v>1.051387996438114</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.051056940050644</v>
+        <v>1.06654238299794</v>
       </c>
       <c r="J21">
-        <v>1.031942751103099</v>
+        <v>1.05899171779628</v>
       </c>
       <c r="K21">
-        <v>1.039977168274071</v>
+        <v>1.064118579998121</v>
       </c>
       <c r="L21">
-        <v>1.030432650775164</v>
+        <v>1.054743578115996</v>
       </c>
       <c r="M21">
-        <v>1.040359795919691</v>
+        <v>1.065457095719637</v>
       </c>
       <c r="N21">
-        <v>1.033408228175153</v>
+        <v>1.060495607503599</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9948339106385435</v>
+        <v>1.024609172442509</v>
       </c>
       <c r="D22">
-        <v>1.019236706870347</v>
+        <v>1.044988870712515</v>
       </c>
       <c r="E22">
-        <v>1.008962662375927</v>
+        <v>1.03507554050615</v>
       </c>
       <c r="F22">
-        <v>1.018925994001744</v>
+        <v>1.04580768502315</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.047958693291205</v>
+        <v>1.063682980037124</v>
       </c>
       <c r="J22">
-        <v>1.025802535119055</v>
+        <v>1.054305998885655</v>
       </c>
       <c r="K22">
-        <v>1.034436476340064</v>
+        <v>1.059718839547881</v>
       </c>
       <c r="L22">
-        <v>1.024358633849879</v>
+        <v>1.049982760862082</v>
       </c>
       <c r="M22">
-        <v>1.034131621304862</v>
+        <v>1.060523208146559</v>
       </c>
       <c r="N22">
-        <v>1.02725929238012</v>
+        <v>1.055803234334661</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9989606630346105</v>
+        <v>1.027873393676629</v>
       </c>
       <c r="D23">
-        <v>1.022565045518965</v>
+        <v>1.04767734166722</v>
       </c>
       <c r="E23">
-        <v>1.012587940028818</v>
+        <v>1.037965600076841</v>
       </c>
       <c r="F23">
-        <v>1.022628573969105</v>
+        <v>1.048785498123795</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.049616701088891</v>
+        <v>1.065210301787646</v>
       </c>
       <c r="J23">
-        <v>1.029086186931997</v>
+        <v>1.05680748458181</v>
       </c>
       <c r="K23">
-        <v>1.037399579399135</v>
+        <v>1.06206764680677</v>
       </c>
       <c r="L23">
-        <v>1.027606950894955</v>
+        <v>1.052524399584472</v>
       </c>
       <c r="M23">
-        <v>1.037461948218746</v>
+        <v>1.063156833502386</v>
       </c>
       <c r="N23">
-        <v>1.030547607355276</v>
+        <v>1.058308272427429</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.014458317702289</v>
+        <v>1.040250783612653</v>
       </c>
       <c r="D24">
-        <v>1.035081736769063</v>
+        <v>1.057883202949562</v>
       </c>
       <c r="E24">
-        <v>1.026215680742914</v>
+        <v>1.048931417427797</v>
       </c>
       <c r="F24">
-        <v>1.036555240319344</v>
+        <v>1.060092026676001</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.055815211246502</v>
+        <v>1.070977816029296</v>
       </c>
       <c r="J24">
-        <v>1.041410945705616</v>
+        <v>1.066282849055611</v>
       </c>
       <c r="K24">
-        <v>1.04851956766544</v>
+        <v>1.070964747226512</v>
       </c>
       <c r="L24">
-        <v>1.039797546114844</v>
+        <v>1.06215047880442</v>
       </c>
       <c r="M24">
-        <v>1.049969439438332</v>
+        <v>1.073140094140556</v>
       </c>
       <c r="N24">
-        <v>1.042889868700023</v>
+        <v>1.067797093005622</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.031118479231054</v>
+        <v>1.053749566080767</v>
       </c>
       <c r="D25">
-        <v>1.048564117396297</v>
+        <v>1.069032858534789</v>
       </c>
       <c r="E25">
-        <v>1.040885940839422</v>
+        <v>1.06090164243865</v>
       </c>
       <c r="F25">
-        <v>1.051563335733066</v>
+        <v>1.072449637688798</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.062418336487831</v>
+        <v>1.07721743873732</v>
       </c>
       <c r="J25">
-        <v>1.054642123461461</v>
+        <v>1.076594209901194</v>
       </c>
       <c r="K25">
-        <v>1.060452572221284</v>
+        <v>1.080646354233072</v>
       </c>
       <c r="L25">
-        <v>1.052881058706681</v>
+        <v>1.072622770325508</v>
       </c>
       <c r="M25">
-        <v>1.063410659026092</v>
+        <v>1.084018515646762</v>
       </c>
       <c r="N25">
-        <v>1.056139836245919</v>
+        <v>1.078123097166336</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_0/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_0/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.063917520961906</v>
+        <v>0.9654907643507796</v>
       </c>
       <c r="D2">
-        <v>1.077442866887692</v>
+        <v>0.9909410204974283</v>
       </c>
       <c r="E2">
-        <v>1.069923834828389</v>
+        <v>0.9741685343264226</v>
       </c>
       <c r="F2">
-        <v>1.081775956837277</v>
+        <v>0.9404165842304503</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.081875338482889</v>
+        <v>1.031922783209725</v>
       </c>
       <c r="J2">
-        <v>1.084341174661012</v>
+        <v>0.988755019043051</v>
       </c>
       <c r="K2">
-        <v>1.087919285007678</v>
+        <v>1.002528020873888</v>
       </c>
       <c r="L2">
-        <v>1.080487958762038</v>
+        <v>0.9859998716858105</v>
       </c>
       <c r="M2">
-        <v>1.092202515165312</v>
+        <v>0.952773535414713</v>
       </c>
       <c r="N2">
-        <v>1.085881063504702</v>
+        <v>0.9901591645818777</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.070994576546779</v>
+        <v>0.9769377782726559</v>
       </c>
       <c r="D3">
-        <v>1.083301433009255</v>
+        <v>0.9997854397836442</v>
       </c>
       <c r="E3">
-        <v>1.076205372814758</v>
+        <v>0.9840772148632381</v>
       </c>
       <c r="F3">
-        <v>1.088276174598096</v>
+        <v>0.9551008209614458</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.08509216407044</v>
+        <v>1.035901098305474</v>
       </c>
       <c r="J3">
-        <v>1.089720669127301</v>
+        <v>0.998077515803948</v>
       </c>
       <c r="K3">
-        <v>1.092968863459736</v>
+        <v>1.010421066684091</v>
       </c>
       <c r="L3">
-        <v>1.085947907663756</v>
+        <v>0.9949179680096973</v>
       </c>
       <c r="M3">
-        <v>1.097891665703973</v>
+        <v>0.9663423658622405</v>
       </c>
       <c r="N3">
-        <v>1.09126819747017</v>
+        <v>0.9994949003574809</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.075444352795071</v>
+        <v>0.9839783851463014</v>
       </c>
       <c r="D4">
-        <v>1.086986948591398</v>
+        <v>1.005228524489157</v>
       </c>
       <c r="E4">
-        <v>1.080155484279792</v>
+        <v>0.9901733654860836</v>
       </c>
       <c r="F4">
-        <v>1.092366988588913</v>
+        <v>0.9641161828189446</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.087102893701661</v>
+        <v>1.03832812846267</v>
       </c>
       <c r="J4">
-        <v>1.09309702205754</v>
+        <v>1.003800998517013</v>
       </c>
       <c r="K4">
-        <v>1.096137736006817</v>
+        <v>1.015264252778433</v>
       </c>
       <c r="L4">
-        <v>1.08937397301759</v>
+        <v>1.000391854265676</v>
       </c>
       <c r="M4">
-        <v>1.101465181153023</v>
+        <v>0.9746678970722132</v>
       </c>
       <c r="N4">
-        <v>1.094649345208842</v>
+        <v>1.005226511072491</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.077285641294782</v>
+        <v>0.9868587388353943</v>
       </c>
       <c r="D5">
-        <v>1.088512377519552</v>
+        <v>1.007455842516652</v>
       </c>
       <c r="E5">
-        <v>1.081790089301535</v>
+        <v>0.992667586598993</v>
       </c>
       <c r="F5">
-        <v>1.094060580248875</v>
+        <v>0.9678015032635556</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.0879320315904</v>
+        <v>1.039316173292202</v>
       </c>
       <c r="J5">
-        <v>1.09449264118899</v>
+        <v>1.006139972752384</v>
       </c>
       <c r="K5">
-        <v>1.097447483902388</v>
+        <v>1.017242743187997</v>
       </c>
       <c r="L5">
-        <v>1.090789949414374</v>
+        <v>1.002628475881025</v>
       </c>
       <c r="M5">
-        <v>1.10294296687785</v>
+        <v>0.9780699145954481</v>
       </c>
       <c r="N5">
-        <v>1.096046946279539</v>
+        <v>1.00756880691956</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.07759312257164</v>
+        <v>0.9873379146745873</v>
       </c>
       <c r="D6">
-        <v>1.08876713357427</v>
+        <v>1.00782640305464</v>
       </c>
       <c r="E6">
-        <v>1.082063058947627</v>
+        <v>0.9930825358488197</v>
       </c>
       <c r="F6">
-        <v>1.09434344508174</v>
+        <v>0.9684144476851116</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.088070320400161</v>
+        <v>1.039480255224132</v>
       </c>
       <c r="J6">
-        <v>1.094725610103198</v>
+        <v>1.006528934323711</v>
       </c>
       <c r="K6">
-        <v>1.09766611175697</v>
+        <v>1.017571711774972</v>
       </c>
       <c r="L6">
-        <v>1.091026305188527</v>
+        <v>1.003000395017314</v>
       </c>
       <c r="M6">
-        <v>1.103189690976143</v>
+        <v>0.9786356599486415</v>
       </c>
       <c r="N6">
-        <v>1.096280246036327</v>
+        <v>1.007958320860933</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.075469069647262</v>
+        <v>0.9840171751390896</v>
       </c>
       <c r="D7">
-        <v>1.087007424000755</v>
+        <v>1.005258518239085</v>
       </c>
       <c r="E7">
-        <v>1.080177426451424</v>
+        <v>0.9902069545987653</v>
       </c>
       <c r="F7">
-        <v>1.09238971955673</v>
+        <v>0.9641658237624466</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.087114035255995</v>
+        <v>1.038341454022681</v>
       </c>
       <c r="J7">
-        <v>1.093115762351162</v>
+        <v>1.003832507828015</v>
       </c>
       <c r="K7">
-        <v>1.096155323670357</v>
+        <v>1.015290908914406</v>
       </c>
       <c r="L7">
-        <v>1.089392987429453</v>
+        <v>1.000421986182324</v>
       </c>
       <c r="M7">
-        <v>1.101485022132236</v>
+        <v>0.9747137272927396</v>
       </c>
       <c r="N7">
-        <v>1.094668112115831</v>
+        <v>1.005258065130328</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.066337084345353</v>
+        <v>0.9694405642387351</v>
       </c>
       <c r="D8">
-        <v>1.079445406148797</v>
+        <v>0.9939919313524732</v>
       </c>
       <c r="E8">
-        <v>1.072071276274797</v>
+        <v>0.9775870564857644</v>
       </c>
       <c r="F8">
-        <v>1.083997483836635</v>
+        <v>0.9454875736917555</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.082977616393169</v>
+        <v>1.033299692901626</v>
       </c>
       <c r="J8">
-        <v>1.086181615333556</v>
+        <v>0.991973959178113</v>
       </c>
       <c r="K8">
-        <v>1.089646935596278</v>
+        <v>1.005253905520323</v>
       </c>
       <c r="L8">
-        <v>1.082356087815152</v>
+        <v>0.9890794349737353</v>
       </c>
       <c r="M8">
-        <v>1.094148298620049</v>
+        <v>0.9574603399455036</v>
       </c>
       <c r="N8">
-        <v>1.087724117814102</v>
+        <v>0.9933826759811494</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.049173197338372</v>
+        <v>0.940492124553819</v>
       </c>
       <c r="D9">
-        <v>1.065250816648028</v>
+        <v>0.9716595572397524</v>
       </c>
       <c r="E9">
-        <v>1.056842395585288</v>
+        <v>0.95254881286894</v>
       </c>
       <c r="F9">
-        <v>1.068257075925303</v>
+        <v>0.9081908437377848</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.075108665344118</v>
+        <v>1.023123225375348</v>
       </c>
       <c r="J9">
-        <v>1.073101505167303</v>
+        <v>0.9683366344523503</v>
       </c>
       <c r="K9">
-        <v>1.07736707176181</v>
+        <v>0.9852298065107443</v>
       </c>
       <c r="L9">
-        <v>1.069075968986625</v>
+        <v>0.9664617163112729</v>
       </c>
       <c r="M9">
-        <v>1.080331950939015</v>
+        <v>0.9229725790590706</v>
       </c>
       <c r="N9">
-        <v>1.074625432391104</v>
+        <v>0.9697117835430369</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.03688494492713</v>
+        <v>0.9181586749767517</v>
       </c>
       <c r="D10">
-        <v>1.055106122212798</v>
+        <v>0.9544872958360311</v>
       </c>
       <c r="E10">
-        <v>1.045948381448728</v>
+        <v>0.9332670813866851</v>
       </c>
       <c r="F10">
-        <v>1.057015042706937</v>
+        <v>0.8791478755765296</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.069413419816337</v>
+        <v>1.015167182094803</v>
       </c>
       <c r="J10">
-        <v>1.063707877480799</v>
+        <v>0.95004287338496</v>
       </c>
       <c r="K10">
-        <v>1.068546931538644</v>
+        <v>0.969729971789268</v>
       </c>
       <c r="L10">
-        <v>1.059534787022424</v>
+        <v>0.9489556601703431</v>
       </c>
       <c r="M10">
-        <v>1.07042590905531</v>
+        <v>0.896105609743304</v>
       </c>
       <c r="N10">
-        <v>1.065218464675821</v>
+        <v>0.9513920432366075</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.031331068822434</v>
+        <v>0.9074894808683175</v>
       </c>
       <c r="D11">
-        <v>1.050526576016771</v>
+        <v>0.9463057842151998</v>
       </c>
       <c r="E11">
-        <v>1.041027842265094</v>
+        <v>0.9240699498330556</v>
       </c>
       <c r="F11">
-        <v>1.051941623880647</v>
+        <v>0.8651640425241351</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.06682541749095</v>
+        <v>1.011344050402006</v>
       </c>
       <c r="J11">
-        <v>1.059456125929903</v>
+        <v>0.941290357135826</v>
       </c>
       <c r="K11">
-        <v>1.064554647146064</v>
+        <v>0.9623166746240278</v>
       </c>
       <c r="L11">
-        <v>1.055215401644341</v>
+        <v>0.9405814321734409</v>
       </c>
       <c r="M11">
-        <v>1.065946252948628</v>
+        <v>0.8831718569924791</v>
       </c>
       <c r="N11">
-        <v>1.06096067515004</v>
+        <v>0.942627097410472</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.029229948330475</v>
+        <v>0.9033418974766093</v>
       </c>
       <c r="D12">
-        <v>1.048795012609354</v>
+        <v>0.943129551159236</v>
       </c>
       <c r="E12">
-        <v>1.039166905706366</v>
+        <v>0.9204974355105201</v>
       </c>
       <c r="F12">
-        <v>1.050023521628312</v>
+        <v>0.8597057074019154</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.065844304853562</v>
+        <v>1.009854783513706</v>
       </c>
       <c r="J12">
-        <v>1.057846769545717</v>
+        <v>0.9378859417235857</v>
       </c>
       <c r="K12">
-        <v>1.06304350474241</v>
+        <v>0.9594338999509782</v>
       </c>
       <c r="L12">
-        <v>1.053580325869596</v>
+        <v>0.9373245981671021</v>
       </c>
       <c r="M12">
-        <v>1.064251250282257</v>
+        <v>0.8781244191933896</v>
       </c>
       <c r="N12">
-        <v>1.059349033295192</v>
+        <v>0.9392178473378542</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.029682427822805</v>
+        <v>0.9042406155294944</v>
       </c>
       <c r="D13">
-        <v>1.049167862309218</v>
+        <v>0.9438175818657273</v>
       </c>
       <c r="E13">
-        <v>1.039567633155747</v>
+        <v>0.9212714052987748</v>
       </c>
       <c r="F13">
-        <v>1.050436529371448</v>
+        <v>0.8608895603436758</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.06605567945204</v>
+        <v>1.010177616041493</v>
       </c>
       <c r="J13">
-        <v>1.058193384018691</v>
+        <v>0.9386237126065365</v>
       </c>
       <c r="K13">
-        <v>1.063368966058231</v>
+        <v>0.960058586238504</v>
       </c>
       <c r="L13">
-        <v>1.053932484861441</v>
+        <v>0.9380303622337838</v>
       </c>
       <c r="M13">
-        <v>1.064616282586332</v>
+        <v>0.8792190938124487</v>
       </c>
       <c r="N13">
-        <v>1.059696140000475</v>
+        <v>0.9399566659400824</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.031158187740681</v>
+        <v>0.9071506508423203</v>
       </c>
       <c r="D14">
-        <v>1.050384082173942</v>
+        <v>0.9460462146628876</v>
       </c>
       <c r="E14">
-        <v>1.040874711172062</v>
+        <v>0.9237780379841627</v>
       </c>
       <c r="F14">
-        <v>1.051783775511118</v>
+        <v>0.8647186199152729</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.066744731897626</v>
+        <v>1.011222446363595</v>
       </c>
       <c r="J14">
-        <v>1.059323724207066</v>
+        <v>0.9410122775041552</v>
       </c>
       <c r="K14">
-        <v>1.064430325350652</v>
+        <v>0.9620811865338561</v>
       </c>
       <c r="L14">
-        <v>1.055080886345169</v>
+        <v>0.9403153968150453</v>
       </c>
       <c r="M14">
-        <v>1.065806792460008</v>
+        <v>0.8827599401598185</v>
       </c>
       <c r="N14">
-        <v>1.06082808540157</v>
+        <v>0.942348622873828</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.032062293921588</v>
+        <v>0.908917915534313</v>
       </c>
       <c r="D15">
-        <v>1.051129313456119</v>
+        <v>0.9474002519969449</v>
       </c>
       <c r="E15">
-        <v>1.041675556298756</v>
+        <v>0.9253007051184389</v>
       </c>
       <c r="F15">
-        <v>1.052609317635321</v>
+        <v>0.8670409167935085</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.067166606565661</v>
+        <v>1.011856586500698</v>
       </c>
       <c r="J15">
-        <v>1.060016103711515</v>
+        <v>0.9424626039591504</v>
       </c>
       <c r="K15">
-        <v>1.065080451975734</v>
+        <v>0.9633094082840491</v>
       </c>
       <c r="L15">
-        <v>1.055784313774417</v>
+        <v>0.9417029255475327</v>
       </c>
       <c r="M15">
-        <v>1.066536110222777</v>
+        <v>0.8849075935695114</v>
       </c>
       <c r="N15">
-        <v>1.061521448164332</v>
+        <v>0.9438010089587442</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.037248367621346</v>
+        <v>0.9188430344247817</v>
       </c>
       <c r="D16">
-        <v>1.055405913089545</v>
+        <v>0.9550126057822886</v>
       </c>
       <c r="E16">
-        <v>1.046270435637817</v>
+        <v>0.9338573557981807</v>
       </c>
       <c r="F16">
-        <v>1.057347192756591</v>
+        <v>0.880042211794818</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.069582484597839</v>
+        <v>1.015411983493058</v>
       </c>
       <c r="J16">
-        <v>1.06398597319402</v>
+        <v>0.9506040287276597</v>
       </c>
       <c r="K16">
-        <v>1.068808055436981</v>
+        <v>0.9702053423295505</v>
       </c>
       <c r="L16">
-        <v>1.059817289620458</v>
+        <v>0.9494926075039759</v>
       </c>
       <c r="M16">
-        <v>1.070718995871928</v>
+        <v>0.8969328842985036</v>
       </c>
       <c r="N16">
-        <v>1.065496955316852</v>
+        <v>0.9519539954842591</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.040436965146027</v>
+        <v>0.9247805731572867</v>
       </c>
       <c r="D17">
-        <v>1.058036854098242</v>
+        <v>0.9595727225128843</v>
       </c>
       <c r="E17">
-        <v>1.049096445481124</v>
+        <v>0.9389802187944691</v>
       </c>
       <c r="F17">
-        <v>1.060262280907017</v>
+        <v>0.8877891094749681</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.07106425768615</v>
+        <v>1.01753347631458</v>
       </c>
       <c r="J17">
-        <v>1.066425242730247</v>
+        <v>0.9554712080270749</v>
       </c>
       <c r="K17">
-        <v>1.071098449619577</v>
+        <v>0.9743287701575898</v>
       </c>
       <c r="L17">
-        <v>1.062295118618547</v>
+        <v>0.9541499909957362</v>
       </c>
       <c r="M17">
-        <v>1.073290213027099</v>
+        <v>0.9040991897834632</v>
       </c>
       <c r="N17">
-        <v>1.067939688895609</v>
+        <v>0.9568280867365528</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.042274573602041</v>
+        <v>0.9281503159824679</v>
       </c>
       <c r="D18">
-        <v>1.059553591466403</v>
+        <v>0.9621626680599871</v>
       </c>
       <c r="E18">
-        <v>1.050725384935423</v>
+        <v>0.9418888452653432</v>
       </c>
       <c r="F18">
-        <v>1.061942971167512</v>
+        <v>0.892176231765945</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.071916897071858</v>
+        <v>1.018735439664685</v>
       </c>
       <c r="J18">
-        <v>1.067830425589359</v>
+        <v>0.9582322887593221</v>
       </c>
       <c r="K18">
-        <v>1.072417859208567</v>
+        <v>0.9766681306313457</v>
       </c>
       <c r="L18">
-        <v>1.063722434058096</v>
+        <v>0.9567921686929505</v>
       </c>
       <c r="M18">
-        <v>1.07477178366266</v>
+        <v>0.908157681892653</v>
       </c>
       <c r="N18">
-        <v>1.069346867275558</v>
+        <v>0.9595930885201399</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.042897467030643</v>
+        <v>0.9292843122336234</v>
       </c>
       <c r="D19">
-        <v>1.060067802357046</v>
+        <v>0.963034548953257</v>
       </c>
       <c r="E19">
-        <v>1.051277592654954</v>
+        <v>0.9428678587838417</v>
       </c>
       <c r="F19">
-        <v>1.062512790904752</v>
+        <v>0.8936511228011335</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.072205690934125</v>
+        <v>1.019139572302095</v>
       </c>
       <c r="J19">
-        <v>1.068306638904819</v>
+        <v>0.9591612511644656</v>
       </c>
       <c r="K19">
-        <v>1.072865001789903</v>
+        <v>0.9774552308573774</v>
       </c>
       <c r="L19">
-        <v>1.064206134213172</v>
+        <v>0.9576811399335114</v>
       </c>
       <c r="M19">
-        <v>1.075273948188935</v>
+        <v>0.9095221045214263</v>
       </c>
       <c r="N19">
-        <v>1.069823756868547</v>
+        <v>0.9605233701584525</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.040097181490249</v>
+        <v>0.9241534169001794</v>
       </c>
       <c r="D20">
-        <v>1.057756441679525</v>
+        <v>0.95909084939198</v>
       </c>
       <c r="E20">
-        <v>1.048795268838511</v>
+        <v>0.9384389796933075</v>
       </c>
       <c r="F20">
-        <v>1.059951568771975</v>
+        <v>0.8869718634610756</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.07090649310183</v>
+        <v>1.017309604821551</v>
       </c>
       <c r="J20">
-        <v>1.066165369155199</v>
+        <v>0.9549572340820778</v>
       </c>
       <c r="K20">
-        <v>1.070854437880682</v>
+        <v>0.9738933133643068</v>
       </c>
       <c r="L20">
-        <v>1.062031145302064</v>
+        <v>0.953658158563055</v>
       </c>
       <c r="M20">
-        <v>1.073016242798607</v>
+        <v>0.9033431715333112</v>
       </c>
       <c r="N20">
-        <v>1.067679446270277</v>
+        <v>0.9563133828896002</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.030724694073881</v>
+        <v>0.9062991541682204</v>
       </c>
       <c r="D21">
-        <v>1.050026799277087</v>
+        <v>0.9453939755357442</v>
       </c>
       <c r="E21">
-        <v>1.040490749694899</v>
+        <v>0.9230444966112135</v>
       </c>
       <c r="F21">
-        <v>1.051387996438114</v>
+        <v>0.8635988727120896</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.06654238299794</v>
+        <v>1.010916801914047</v>
       </c>
       <c r="J21">
-        <v>1.05899171779628</v>
+        <v>0.9403134189459244</v>
       </c>
       <c r="K21">
-        <v>1.064118579998121</v>
+        <v>0.9614893804250675</v>
       </c>
       <c r="L21">
-        <v>1.054743578115996</v>
+        <v>0.9396468154104013</v>
       </c>
       <c r="M21">
-        <v>1.065457095719637</v>
+        <v>0.8817244420164355</v>
       </c>
       <c r="N21">
-        <v>1.060495607503599</v>
+        <v>0.9416487718562843</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.024609172442509</v>
+        <v>0.8939777226861774</v>
       </c>
       <c r="D22">
-        <v>1.044988870712515</v>
+        <v>0.9359677829194788</v>
       </c>
       <c r="E22">
-        <v>1.03507554050615</v>
+        <v>0.9124378522591718</v>
       </c>
       <c r="F22">
-        <v>1.04580768502315</v>
+        <v>0.8473318493776982</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.063682980037124</v>
+        <v>1.006487131622149</v>
       </c>
       <c r="J22">
-        <v>1.054305998885655</v>
+        <v>0.9301960834189582</v>
       </c>
       <c r="K22">
-        <v>1.059718839547881</v>
+        <v>0.9529242008111853</v>
       </c>
       <c r="L22">
-        <v>1.049982760862082</v>
+        <v>0.9299692692508517</v>
       </c>
       <c r="M22">
-        <v>1.060523208146559</v>
+        <v>0.8666849789866481</v>
       </c>
       <c r="N22">
-        <v>1.055803234334661</v>
+        <v>0.9315170685523949</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.027873393676629</v>
+        <v>0.9006286580959797</v>
       </c>
       <c r="D23">
-        <v>1.04767734166722</v>
+        <v>0.9410530974987785</v>
       </c>
       <c r="E23">
-        <v>1.037965600076841</v>
+        <v>0.9181612905648741</v>
       </c>
       <c r="F23">
-        <v>1.048785498123795</v>
+        <v>0.8561277971687764</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.065210301787646</v>
+        <v>1.008879730242805</v>
       </c>
       <c r="J23">
-        <v>1.05680748458181</v>
+        <v>0.9356583235431253</v>
       </c>
       <c r="K23">
-        <v>1.06206764680677</v>
+        <v>0.9575478701215632</v>
       </c>
       <c r="L23">
-        <v>1.052524399584472</v>
+        <v>0.9351937090020653</v>
       </c>
       <c r="M23">
-        <v>1.063156833502386</v>
+        <v>0.8748162460809537</v>
       </c>
       <c r="N23">
-        <v>1.058308272427429</v>
+        <v>0.9369870656840664</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.040250783612653</v>
+        <v>0.9244370883752818</v>
       </c>
       <c r="D24">
-        <v>1.057883202949562</v>
+        <v>0.9593088013114064</v>
       </c>
       <c r="E24">
-        <v>1.048931417427797</v>
+        <v>0.9386837858235336</v>
       </c>
       <c r="F24">
-        <v>1.060092026676001</v>
+        <v>0.887341544445249</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.070977816029296</v>
+        <v>1.01741087143718</v>
       </c>
       <c r="J24">
-        <v>1.066282849055611</v>
+        <v>0.9551897153786412</v>
       </c>
       <c r="K24">
-        <v>1.070964747226512</v>
+        <v>0.9740902790924827</v>
       </c>
       <c r="L24">
-        <v>1.06215047880442</v>
+        <v>0.9538806244526835</v>
       </c>
       <c r="M24">
-        <v>1.073140094140556</v>
+        <v>0.9036851556904983</v>
       </c>
       <c r="N24">
-        <v>1.067797093005622</v>
+        <v>0.9565461943362705</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.053749566080767</v>
+        <v>0.9484363546424576</v>
       </c>
       <c r="D25">
-        <v>1.069032858534789</v>
+        <v>0.9777809965531653</v>
       </c>
       <c r="E25">
-        <v>1.06090164243865</v>
+        <v>0.959415700529137</v>
       </c>
       <c r="F25">
-        <v>1.072449637688798</v>
+        <v>0.9184594125893478</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.07721743873732</v>
+        <v>1.025933814807561</v>
       </c>
       <c r="J25">
-        <v>1.076594209901194</v>
+        <v>0.9748330026477544</v>
       </c>
       <c r="K25">
-        <v>1.080646354233072</v>
+        <v>0.990734313280195</v>
       </c>
       <c r="L25">
-        <v>1.072622770325508</v>
+        <v>0.97267849830894</v>
       </c>
       <c r="M25">
-        <v>1.084018515646762</v>
+        <v>0.9324708030929545</v>
       </c>
       <c r="N25">
-        <v>1.078123097166336</v>
+        <v>0.9762173773264223</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_0/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_0/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,46 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9654907643507796</v>
+        <v>0.9842769076615383</v>
       </c>
       <c r="D2">
-        <v>0.9909410204974283</v>
+        <v>1.010304446435454</v>
       </c>
       <c r="E2">
-        <v>0.9741685343264226</v>
+        <v>0.9904716142646404</v>
       </c>
       <c r="F2">
-        <v>0.9404165842304503</v>
+        <v>0.9602773133057778</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.031922783209725</v>
+        <v>1.041745639426326</v>
       </c>
       <c r="J2">
-        <v>0.988755019043051</v>
+        <v>1.006938283978357</v>
       </c>
       <c r="K2">
-        <v>1.002528020873888</v>
+        <v>1.021622066592266</v>
       </c>
       <c r="L2">
-        <v>0.9859998716858105</v>
+        <v>1.002065310370736</v>
       </c>
       <c r="M2">
-        <v>0.952773535414713</v>
+        <v>0.9723192631727924</v>
       </c>
       <c r="N2">
-        <v>0.9901591645818777</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.008368251839042</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.026358657317454</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +480,46 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9769377782726559</v>
+        <v>0.9929938542330689</v>
       </c>
       <c r="D3">
-        <v>0.9997854397836442</v>
+        <v>1.016438229833177</v>
       </c>
       <c r="E3">
-        <v>0.9840772148632381</v>
+        <v>0.9980273410953309</v>
       </c>
       <c r="F3">
-        <v>0.9551008209614458</v>
+        <v>0.9719670039016161</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.035901098305474</v>
+        <v>1.044359658208313</v>
       </c>
       <c r="J3">
-        <v>0.998077515803948</v>
+        <v>1.013677353295796</v>
       </c>
       <c r="K3">
-        <v>1.010421066684091</v>
+        <v>1.026865013632433</v>
       </c>
       <c r="L3">
-        <v>0.9949179680096973</v>
+        <v>1.008685524841876</v>
       </c>
       <c r="M3">
-        <v>0.9663423658622405</v>
+        <v>0.9829715989856347</v>
       </c>
       <c r="N3">
-        <v>0.9994949003574809</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.015116891407894</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.030063301957338</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +527,46 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9839783851463014</v>
+        <v>0.9984207161217713</v>
       </c>
       <c r="D4">
-        <v>1.005228524489157</v>
+        <v>1.020260740133625</v>
       </c>
       <c r="E4">
-        <v>0.9901733654860836</v>
+        <v>1.00273321036794</v>
       </c>
       <c r="F4">
-        <v>0.9641161828189446</v>
+        <v>0.9792306219738036</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.03832812846267</v>
+        <v>1.045969745210051</v>
       </c>
       <c r="J4">
-        <v>1.003800998517013</v>
+        <v>1.017864906598569</v>
       </c>
       <c r="K4">
-        <v>1.015264252778433</v>
+        <v>1.030120634214599</v>
       </c>
       <c r="L4">
-        <v>1.000391854265676</v>
+        <v>1.012798759502425</v>
       </c>
       <c r="M4">
-        <v>0.9746678970722132</v>
+        <v>0.9895863515145263</v>
       </c>
       <c r="N4">
-        <v>1.005226511072491</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.019310391516675</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.032366277988981</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +574,46 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9868587388353943</v>
+        <v>1.000672366421778</v>
       </c>
       <c r="D5">
-        <v>1.007455842516652</v>
+        <v>1.021849528600038</v>
       </c>
       <c r="E5">
-        <v>0.992667586598993</v>
+        <v>1.004691894926857</v>
       </c>
       <c r="F5">
-        <v>0.9678015032635556</v>
+        <v>0.9822364988517279</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039316173292202</v>
+        <v>1.046635677847211</v>
       </c>
       <c r="J5">
-        <v>1.006139972752384</v>
+        <v>1.019604016183856</v>
       </c>
       <c r="K5">
-        <v>1.017242743187997</v>
+        <v>1.031473037759689</v>
       </c>
       <c r="L5">
-        <v>1.002628475881025</v>
+        <v>1.014510833106788</v>
       </c>
       <c r="M5">
-        <v>0.9780699145954481</v>
+        <v>0.9923240318567548</v>
       </c>
       <c r="N5">
-        <v>1.00756880691956</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.021051970837052</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.033329801274516</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +621,46 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9873379146745873</v>
+        <v>1.001069196279635</v>
       </c>
       <c r="D6">
-        <v>1.00782640305464</v>
+        <v>1.022132034166501</v>
       </c>
       <c r="E6">
-        <v>0.9930825358488197</v>
+        <v>1.005044143343248</v>
       </c>
       <c r="F6">
-        <v>0.9684144476851116</v>
+        <v>0.982759860454128</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.039480255224132</v>
+        <v>1.046755397409824</v>
       </c>
       <c r="J6">
-        <v>1.006528934323711</v>
+        <v>1.019914762023494</v>
       </c>
       <c r="K6">
-        <v>1.017571711774972</v>
+        <v>1.031715776792237</v>
       </c>
       <c r="L6">
-        <v>1.003000395017314</v>
+        <v>1.014821534510776</v>
       </c>
       <c r="M6">
-        <v>0.9786356599486415</v>
+        <v>0.9928023574962482</v>
       </c>
       <c r="N6">
-        <v>1.007958320860933</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.021363157971426</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.03351026301225</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +668,46 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9840171751390896</v>
+        <v>0.9985099167649563</v>
       </c>
       <c r="D7">
-        <v>1.005258518239085</v>
+        <v>1.020330220796822</v>
       </c>
       <c r="E7">
-        <v>0.9902069545987653</v>
+        <v>1.002830206580354</v>
       </c>
       <c r="F7">
-        <v>0.9641658237624466</v>
+        <v>0.9793326605435597</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.038341454022681</v>
+        <v>1.04600318409571</v>
       </c>
       <c r="J7">
-        <v>1.003832507828015</v>
+        <v>1.017945711302066</v>
       </c>
       <c r="K7">
-        <v>1.015290908914406</v>
+        <v>1.030186395774162</v>
       </c>
       <c r="L7">
-        <v>1.000421986182324</v>
+        <v>1.012891603073178</v>
       </c>
       <c r="M7">
-        <v>0.9747137272927396</v>
+        <v>0.9896840048703294</v>
       </c>
       <c r="N7">
-        <v>1.005258065130328</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.01939131097212</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.032433090480284</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +715,46 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9694405642387351</v>
+        <v>0.9873488261250259</v>
       </c>
       <c r="D8">
-        <v>0.9939919313524732</v>
+        <v>1.012473159696042</v>
       </c>
       <c r="E8">
-        <v>0.9775870564857644</v>
+        <v>0.9931605799743685</v>
       </c>
       <c r="F8">
-        <v>0.9454875736917555</v>
+        <v>0.9643774323255234</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.033299692901626</v>
+        <v>1.042679100424573</v>
       </c>
       <c r="J8">
-        <v>0.991973959178113</v>
+        <v>1.009330487073694</v>
       </c>
       <c r="K8">
-        <v>1.005253905520323</v>
+        <v>1.023486783771696</v>
       </c>
       <c r="L8">
-        <v>0.9890794349737353</v>
+        <v>1.004433999565436</v>
       </c>
       <c r="M8">
-        <v>0.9574603399455036</v>
+        <v>0.9760625780977702</v>
       </c>
       <c r="N8">
-        <v>0.9933826759811494</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.010763852137164</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.027700474123843</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,81 +762,93 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.940492124553819</v>
+        <v>0.9657473509791423</v>
       </c>
       <c r="D9">
-        <v>0.9716595572397524</v>
+        <v>0.9972966327679963</v>
       </c>
       <c r="E9">
-        <v>0.95254881286894</v>
+        <v>0.9744305579765902</v>
       </c>
       <c r="F9">
-        <v>0.9081908437377848</v>
+        <v>0.9353079836743757</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.023123225375348</v>
+        <v>1.036094555441719</v>
       </c>
       <c r="J9">
-        <v>0.9683366344523503</v>
+        <v>0.9925704701621794</v>
       </c>
       <c r="K9">
-        <v>0.9852298065107443</v>
+        <v>1.010433723020378</v>
       </c>
       <c r="L9">
-        <v>0.9664617163112729</v>
+        <v>0.9879525672560787</v>
       </c>
       <c r="M9">
-        <v>0.9229725790590706</v>
+        <v>0.9495457551003336</v>
       </c>
       <c r="N9">
-        <v>0.9697117835430369</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>0.9939800340792336</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.018467424860373</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C10">
-        <v>0.9181586749767517</v>
+        <v>0.9498146012906038</v>
       </c>
       <c r="D10">
-        <v>0.9544872958360311</v>
+        <v>0.9861480064049547</v>
       </c>
       <c r="E10">
-        <v>0.9332670813866851</v>
+        <v>0.9606495655492169</v>
       </c>
       <c r="F10">
-        <v>0.8791478755765296</v>
+        <v>0.9136806752924876</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.015167182094803</v>
+        <v>1.031151026997203</v>
       </c>
       <c r="J10">
-        <v>0.95004287338496</v>
+        <v>0.9801712413058565</v>
       </c>
       <c r="K10">
-        <v>0.969729971789268</v>
+        <v>1.000771949401541</v>
       </c>
       <c r="L10">
-        <v>0.9489556601703431</v>
+        <v>0.9757676084292558</v>
       </c>
       <c r="M10">
-        <v>0.896105609743304</v>
+        <v>0.9298053944730721</v>
       </c>
       <c r="N10">
-        <v>0.9513920432366075</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>0.9815631968957238</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.011652802738035</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +856,46 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9074894808683175</v>
+        <v>0.9425628602541214</v>
       </c>
       <c r="D11">
-        <v>0.9463057842151998</v>
+        <v>0.9810953976882204</v>
       </c>
       <c r="E11">
-        <v>0.9240699498330556</v>
+        <v>0.9544225834485766</v>
       </c>
       <c r="F11">
-        <v>0.8651640425241351</v>
+        <v>0.9037437305088337</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.011344050402006</v>
+        <v>1.028889777305739</v>
       </c>
       <c r="J11">
-        <v>0.941290357135826</v>
+        <v>0.9745369466799875</v>
       </c>
       <c r="K11">
-        <v>0.9623166746240278</v>
+        <v>0.9963828555558587</v>
       </c>
       <c r="L11">
-        <v>0.9405814321734409</v>
+        <v>0.9702584384164018</v>
       </c>
       <c r="M11">
-        <v>0.8831718569924791</v>
+        <v>0.9207418670933705</v>
       </c>
       <c r="N11">
-        <v>0.942627097410472</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>0.975920900925223</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.008583287900414</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +903,46 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9033418974766093</v>
+        <v>0.9397321216705524</v>
       </c>
       <c r="D12">
-        <v>0.943129551159236</v>
+        <v>0.9791212281940365</v>
       </c>
       <c r="E12">
-        <v>0.9204974355105201</v>
+        <v>0.9519733162356202</v>
       </c>
       <c r="F12">
-        <v>0.8597057074019154</v>
+        <v>0.8998692549152097</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.009854783513706</v>
+        <v>1.02799971356557</v>
       </c>
       <c r="J12">
-        <v>0.9378859417235857</v>
+        <v>0.9723258233953335</v>
       </c>
       <c r="K12">
-        <v>0.9594338999509782</v>
+        <v>0.9946596704083863</v>
       </c>
       <c r="L12">
-        <v>0.9373245981671021</v>
+        <v>0.968082338342198</v>
       </c>
       <c r="M12">
-        <v>0.8781244191933896</v>
+        <v>0.9172039219680017</v>
       </c>
       <c r="N12">
-        <v>0.9392178473378542</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>0.9737066375918855</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.007364852897249</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +950,46 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9042406155294944</v>
+        <v>0.9403312118273296</v>
       </c>
       <c r="D13">
-        <v>0.9438175818657273</v>
+        <v>0.9795380791973668</v>
       </c>
       <c r="E13">
-        <v>0.9212714052987748</v>
+        <v>0.9524876172457541</v>
       </c>
       <c r="F13">
-        <v>0.8608895603436758</v>
+        <v>0.9006930940901751</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.010177616041493</v>
+        <v>1.028187338105866</v>
       </c>
       <c r="J13">
-        <v>0.9386237126065365</v>
+        <v>0.9727918304889502</v>
       </c>
       <c r="K13">
-        <v>0.960058586238504</v>
+        <v>0.9950226928741274</v>
       </c>
       <c r="L13">
-        <v>0.9380303622337838</v>
+        <v>0.9685381079844553</v>
       </c>
       <c r="M13">
-        <v>0.8792190938124487</v>
+        <v>0.9179553873518892</v>
       </c>
       <c r="N13">
-        <v>0.9399566659400824</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>0.9741733064690271</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.007618952406923</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +997,46 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9071506508423203</v>
+        <v>0.9423255471479911</v>
       </c>
       <c r="D14">
-        <v>0.9460462146628876</v>
+        <v>0.9809294818978378</v>
       </c>
       <c r="E14">
-        <v>0.9237780379841627</v>
+        <v>0.9542155357548404</v>
       </c>
       <c r="F14">
-        <v>0.8647186199152729</v>
+        <v>0.903420563364423</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.011222446363595</v>
+        <v>1.028814844765015</v>
       </c>
       <c r="J14">
-        <v>0.9410122775041552</v>
+        <v>0.9743507544819245</v>
       </c>
       <c r="K14">
-        <v>0.9620811865338561</v>
+        <v>0.9962376843736828</v>
       </c>
       <c r="L14">
-        <v>0.9403153968150453</v>
+        <v>0.9700739896827855</v>
       </c>
       <c r="M14">
-        <v>0.8827599401598185</v>
+        <v>0.9204464238783816</v>
       </c>
       <c r="N14">
-        <v>0.942348622873828</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>0.9757344443128826</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.008479532387031</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1044,46 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.908917915534313</v>
+        <v>0.9435664189463174</v>
       </c>
       <c r="D15">
-        <v>0.9474002519969449</v>
+        <v>0.9817972291614434</v>
       </c>
       <c r="E15">
-        <v>0.9253007051184389</v>
+        <v>0.9552985816219965</v>
       </c>
       <c r="F15">
-        <v>0.8670409167935085</v>
+        <v>0.9051095270660441</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.011856586500698</v>
+        <v>1.029206631408437</v>
       </c>
       <c r="J15">
-        <v>0.9424626039591504</v>
+        <v>0.9753244559415055</v>
       </c>
       <c r="K15">
-        <v>0.9633094082840491</v>
+        <v>0.9969968971448385</v>
       </c>
       <c r="L15">
-        <v>0.9417029255475327</v>
+        <v>0.9710388403589834</v>
       </c>
       <c r="M15">
-        <v>0.8849075935695114</v>
+        <v>0.9219905780458352</v>
       </c>
       <c r="N15">
-        <v>0.9438010089587442</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>0.9767095285402212</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.00902244470829</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1091,46 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9188430344247817</v>
+        <v>0.9504770673332938</v>
       </c>
       <c r="D16">
-        <v>0.9550126057822886</v>
+        <v>0.9866246612137315</v>
       </c>
       <c r="E16">
-        <v>0.9338573557981807</v>
+        <v>0.9612844869972099</v>
       </c>
       <c r="F16">
-        <v>0.880042211794818</v>
+        <v>0.9145323513016463</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.015411983493058</v>
+        <v>1.031372370303311</v>
       </c>
       <c r="J16">
-        <v>0.9506040287276597</v>
+        <v>0.9807196994394672</v>
       </c>
       <c r="K16">
-        <v>0.9702053423295505</v>
+        <v>1.001202283268688</v>
       </c>
       <c r="L16">
-        <v>0.9494926075039759</v>
+        <v>0.9763509528565814</v>
       </c>
       <c r="M16">
-        <v>0.8969328842985036</v>
+        <v>0.9305957340972606</v>
       </c>
       <c r="N16">
-        <v>0.9519539954842591</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>0.982112433902793</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.011999242069317</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1138,46 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9247805731572867</v>
+        <v>0.9546787539865714</v>
       </c>
       <c r="D17">
-        <v>0.9595727225128843</v>
+        <v>0.9895637280374008</v>
       </c>
       <c r="E17">
-        <v>0.9389802187944691</v>
+        <v>0.9649257330390281</v>
       </c>
       <c r="F17">
-        <v>0.8877891094749681</v>
+        <v>0.9202436282367766</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.01753347631458</v>
+        <v>1.032684130377177</v>
       </c>
       <c r="J17">
-        <v>0.9554712080270749</v>
+        <v>0.9839973082690823</v>
       </c>
       <c r="K17">
-        <v>0.9743287701575898</v>
+        <v>1.003757251229183</v>
       </c>
       <c r="L17">
-        <v>0.9541499909957362</v>
+        <v>0.9795780197535897</v>
       </c>
       <c r="M17">
-        <v>0.9040991897834632</v>
+        <v>0.935811218740242</v>
       </c>
       <c r="N17">
-        <v>0.9568280867365528</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>0.9853946973128932</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.013808448087053</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1185,46 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9281503159824679</v>
+        <v>0.9570284408591369</v>
       </c>
       <c r="D18">
-        <v>0.9621626680599871</v>
+        <v>0.9912041765528364</v>
       </c>
       <c r="E18">
-        <v>0.9418888452653432</v>
+        <v>0.9669435145675163</v>
       </c>
       <c r="F18">
-        <v>0.892176231765945</v>
+        <v>0.9234476314104814</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.018735439664685</v>
+        <v>1.033411256304992</v>
       </c>
       <c r="J18">
-        <v>0.9582322887593221</v>
+        <v>0.985819272050605</v>
       </c>
       <c r="K18">
-        <v>0.9766681306313457</v>
+        <v>1.005176484499668</v>
       </c>
       <c r="L18">
-        <v>0.9567921686929505</v>
+        <v>0.9813583316496916</v>
       </c>
       <c r="M18">
-        <v>0.908157681892653</v>
+        <v>0.9387329566584494</v>
       </c>
       <c r="N18">
-        <v>0.9595930885201399</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>0.9872192484919677</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.01479995144844</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1232,46 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9292843122336234</v>
+        <v>0.9578660003700068</v>
       </c>
       <c r="D19">
-        <v>0.963034548953257</v>
+        <v>0.9917926188715611</v>
       </c>
       <c r="E19">
-        <v>0.9428678587838417</v>
+        <v>0.9676779215753807</v>
       </c>
       <c r="F19">
-        <v>0.8936511228011335</v>
+        <v>0.9245764396632125</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.019139572302095</v>
+        <v>1.033673783796271</v>
       </c>
       <c r="J19">
-        <v>0.9591612511644656</v>
+        <v>0.9864764552193881</v>
       </c>
       <c r="K19">
-        <v>0.9774552308573774</v>
+        <v>1.005689229203173</v>
       </c>
       <c r="L19">
-        <v>0.9576811399335114</v>
+        <v>0.9820112325932359</v>
       </c>
       <c r="M19">
-        <v>0.9095221045214263</v>
+        <v>0.939765419808667</v>
       </c>
       <c r="N19">
-        <v>0.9605233701584525</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>0.9878773649362305</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.015169078973753</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1279,46 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9241534169001794</v>
+        <v>0.9542281943165348</v>
       </c>
       <c r="D20">
-        <v>0.95909084939198</v>
+        <v>0.9892480807195809</v>
       </c>
       <c r="E20">
-        <v>0.9384389796933075</v>
+        <v>0.9645337035407004</v>
       </c>
       <c r="F20">
-        <v>0.8869718634610756</v>
+        <v>0.9196330369363369</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.017309604821551</v>
+        <v>1.032543299892056</v>
       </c>
       <c r="J20">
-        <v>0.9549572340820778</v>
+        <v>0.9836451581482476</v>
       </c>
       <c r="K20">
-        <v>0.9738933133643068</v>
+        <v>1.003482661626518</v>
       </c>
       <c r="L20">
-        <v>0.953658158563055</v>
+        <v>0.9792302335456778</v>
       </c>
       <c r="M20">
-        <v>0.9033431715333112</v>
+        <v>0.9352533332390834</v>
       </c>
       <c r="N20">
-        <v>0.9563133828896002</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>0.9850420470984947</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.013612918340889</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1326,46 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9062991541682204</v>
+        <v>0.9418071606427745</v>
       </c>
       <c r="D21">
-        <v>0.9453939755357442</v>
+        <v>0.9805724153634983</v>
       </c>
       <c r="E21">
-        <v>0.9230444966112135</v>
+        <v>0.953788534736391</v>
       </c>
       <c r="F21">
-        <v>0.8635988727120896</v>
+        <v>0.9026937665747286</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.010916801914047</v>
+        <v>1.028656668614909</v>
       </c>
       <c r="J21">
-        <v>0.9403134189459244</v>
+        <v>0.9739568101348435</v>
       </c>
       <c r="K21">
-        <v>0.9614893804250675</v>
+        <v>0.9959314398625521</v>
       </c>
       <c r="L21">
-        <v>0.9396468154104013</v>
+        <v>0.9697016749075604</v>
       </c>
       <c r="M21">
-        <v>0.8817244420164355</v>
+        <v>0.9197871269545765</v>
       </c>
       <c r="N21">
-        <v>0.9416487718562843</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>0.9753399405196423</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.008277008744141</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1373,46 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8939777226861774</v>
+        <v>0.9334356567873093</v>
       </c>
       <c r="D22">
-        <v>0.9359677829194788</v>
+        <v>0.9747347881098637</v>
       </c>
       <c r="E22">
-        <v>0.9124378522591718</v>
+        <v>0.9465252868813888</v>
       </c>
       <c r="F22">
-        <v>0.8473318493776982</v>
+        <v>0.8912278798411003</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.006487131622149</v>
+        <v>1.026014320505601</v>
       </c>
       <c r="J22">
-        <v>0.9301960834189582</v>
+        <v>0.9674033467410671</v>
       </c>
       <c r="K22">
-        <v>0.9529242008111853</v>
+        <v>0.9908239371948506</v>
       </c>
       <c r="L22">
-        <v>0.9299692692508517</v>
+        <v>0.9632361150205633</v>
       </c>
       <c r="M22">
-        <v>0.8666849789866481</v>
+        <v>0.9093130389398146</v>
       </c>
       <c r="N22">
-        <v>0.9315170685523949</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>0.9687771704561544</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.004651542365696</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,119 +1420,137 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9006286580959797</v>
+        <v>0.9378420424597367</v>
       </c>
       <c r="D23">
-        <v>0.9410530974987785</v>
+        <v>0.9778002422009</v>
       </c>
       <c r="E23">
-        <v>0.9181612905648741</v>
+        <v>0.9503206781353394</v>
       </c>
       <c r="F23">
-        <v>0.8561277971687764</v>
+        <v>0.8972929049159469</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.008879730242805</v>
+        <v>1.027400831223034</v>
       </c>
       <c r="J23">
-        <v>0.9356583235431253</v>
+        <v>0.970840123810616</v>
       </c>
       <c r="K23">
-        <v>0.9575478701215632</v>
+        <v>0.9935013425521085</v>
       </c>
       <c r="L23">
-        <v>0.9351937090020653</v>
+        <v>0.9666075848912739</v>
       </c>
       <c r="M23">
-        <v>0.8748162460809537</v>
+        <v>0.9148478411935044</v>
       </c>
       <c r="N23">
-        <v>0.9369870656840664</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>0.9722188281433456</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.006534700102628</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C24">
-        <v>0.9244370883752818</v>
+        <v>0.9543112788503483</v>
       </c>
       <c r="D24">
-        <v>0.9593088013114064</v>
+        <v>0.9892970893142349</v>
       </c>
       <c r="E24">
-        <v>0.9386837858235336</v>
+        <v>0.9645656916817734</v>
       </c>
       <c r="F24">
-        <v>0.887341544445249</v>
+        <v>0.9197787032696303</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.01741087143718</v>
+        <v>1.032559611258794</v>
       </c>
       <c r="J24">
-        <v>0.9551897153786412</v>
+        <v>0.983689051251269</v>
       </c>
       <c r="K24">
-        <v>0.9740902790924827</v>
+        <v>1.003514803736587</v>
       </c>
       <c r="L24">
-        <v>0.9538806244526835</v>
+        <v>0.9792450232713588</v>
       </c>
       <c r="M24">
-        <v>0.9036851556904983</v>
+        <v>0.9353780189553573</v>
       </c>
       <c r="N24">
-        <v>0.9565461943362705</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>0.9850860025347569</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.013607396971196</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C25">
-        <v>0.9484363546424576</v>
+        <v>0.9716921576188503</v>
       </c>
       <c r="D25">
-        <v>0.9777809965531653</v>
+        <v>1.001477032929459</v>
       </c>
       <c r="E25">
-        <v>0.959415700529137</v>
+        <v>0.9796200058008671</v>
       </c>
       <c r="F25">
-        <v>0.9184594125893478</v>
+        <v>0.9433006605011849</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.025933814807561</v>
+        <v>1.037932832427225</v>
       </c>
       <c r="J25">
-        <v>0.9748330026477544</v>
+        <v>0.9972112479811972</v>
       </c>
       <c r="K25">
-        <v>0.990734313280195</v>
+        <v>1.014052463054391</v>
       </c>
       <c r="L25">
-        <v>0.97267849830894</v>
+        <v>0.9925431543123968</v>
       </c>
       <c r="M25">
-        <v>0.9324708030929545</v>
+        <v>0.9568479230757668</v>
       </c>
       <c r="N25">
-        <v>0.9762173773264223</v>
+        <v>0.9986274023350592</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.021055482314685</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_0/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_0/res_bus/vm_pu.xlsx
@@ -433,43 +433,43 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9842769076615383</v>
+        <v>1.033092777220222</v>
       </c>
       <c r="D2">
-        <v>1.010304446435454</v>
+        <v>1.048788138990161</v>
       </c>
       <c r="E2">
-        <v>0.9904716142646404</v>
+        <v>1.044333518247433</v>
       </c>
       <c r="F2">
-        <v>0.9602773133057778</v>
+        <v>1.053703494195917</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041745639426326</v>
+        <v>1.063300348318059</v>
       </c>
       <c r="J2">
-        <v>1.006938283978357</v>
+        <v>1.054326814715894</v>
       </c>
       <c r="K2">
-        <v>1.021622066592266</v>
+        <v>1.059607180677046</v>
       </c>
       <c r="L2">
-        <v>1.002065310370736</v>
+        <v>1.055207927465652</v>
       </c>
       <c r="M2">
-        <v>0.9723192631727924</v>
+        <v>1.064462117317852</v>
       </c>
       <c r="N2">
-        <v>1.008368251839042</v>
+        <v>1.021461607031187</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.026358657317454</v>
+        <v>1.053217527395777</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -480,43 +480,43 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9929938542330689</v>
+        <v>1.03738072213641</v>
       </c>
       <c r="D3">
-        <v>1.016438229833177</v>
+        <v>1.051865654702634</v>
       </c>
       <c r="E3">
-        <v>0.9980273410953309</v>
+        <v>1.047862300063207</v>
       </c>
       <c r="F3">
-        <v>0.9719670039016161</v>
+        <v>1.057401585739695</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044359658208313</v>
+        <v>1.064729290931585</v>
       </c>
       <c r="J3">
-        <v>1.013677353295796</v>
+        <v>1.056901744604396</v>
       </c>
       <c r="K3">
-        <v>1.026865013632433</v>
+        <v>1.061875278729593</v>
       </c>
       <c r="L3">
-        <v>1.008685524841876</v>
+        <v>1.057917319449218</v>
       </c>
       <c r="M3">
-        <v>0.9829715989856347</v>
+        <v>1.067349132941023</v>
       </c>
       <c r="N3">
-        <v>1.015116891407894</v>
+        <v>1.022354058109281</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.030063301957338</v>
+        <v>1.054818597593328</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -527,43 +527,43 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9984207161217713</v>
+        <v>1.040104575553815</v>
       </c>
       <c r="D4">
-        <v>1.020260740133625</v>
+        <v>1.053824402493368</v>
       </c>
       <c r="E4">
-        <v>1.00273321036794</v>
+        <v>1.050109517347122</v>
       </c>
       <c r="F4">
-        <v>0.9792306219738036</v>
+        <v>1.059756866389513</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045969745210051</v>
+        <v>1.065627954376447</v>
       </c>
       <c r="J4">
-        <v>1.017864906598569</v>
+        <v>1.058535207625277</v>
       </c>
       <c r="K4">
-        <v>1.030120634214599</v>
+        <v>1.063313876895706</v>
       </c>
       <c r="L4">
-        <v>1.012798759502425</v>
+        <v>1.059638562526114</v>
       </c>
       <c r="M4">
-        <v>0.9895863515145263</v>
+        <v>1.069183851486059</v>
       </c>
       <c r="N4">
-        <v>1.019310391516675</v>
+        <v>1.022920172730726</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.032366277988981</v>
+        <v>1.055836647981397</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -574,43 +574,43 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.000672366421778</v>
+        <v>1.041242833957433</v>
       </c>
       <c r="D5">
-        <v>1.021849528600038</v>
+        <v>1.054645800194996</v>
       </c>
       <c r="E5">
-        <v>1.004691894926857</v>
+        <v>1.051050738572661</v>
       </c>
       <c r="F5">
-        <v>0.9822364988517279</v>
+        <v>1.060743496076392</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046635677847211</v>
+        <v>1.06600298939851</v>
       </c>
       <c r="J5">
-        <v>1.019604016183856</v>
+        <v>1.059219096794144</v>
       </c>
       <c r="K5">
-        <v>1.031473037759689</v>
+        <v>1.063917366301408</v>
       </c>
       <c r="L5">
-        <v>1.014510833106788</v>
+        <v>1.060359574600941</v>
       </c>
       <c r="M5">
-        <v>0.9923240318567548</v>
+        <v>1.06995255130351</v>
       </c>
       <c r="N5">
-        <v>1.021051970837052</v>
+        <v>1.023158091598492</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.033329801274516</v>
+        <v>1.056270365904774</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -621,43 +621,43 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.001069196279635</v>
+        <v>1.041439233018951</v>
       </c>
       <c r="D6">
-        <v>1.022132034166501</v>
+        <v>1.054789990145447</v>
       </c>
       <c r="E6">
-        <v>1.005044143343248</v>
+        <v>1.051214220551753</v>
       </c>
       <c r="F6">
-        <v>0.982759860454128</v>
+        <v>1.060914972294444</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046755397409824</v>
+        <v>1.066069641970817</v>
       </c>
       <c r="J6">
-        <v>1.019914762023494</v>
+        <v>1.059339311280863</v>
       </c>
       <c r="K6">
-        <v>1.031715776792237</v>
+        <v>1.064024946696412</v>
       </c>
       <c r="L6">
-        <v>1.014821534510776</v>
+        <v>1.060486076241285</v>
       </c>
       <c r="M6">
-        <v>0.9928023574962482</v>
+        <v>1.070087427626536</v>
       </c>
       <c r="N6">
-        <v>1.021363157971426</v>
+        <v>1.023201021425393</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.03351026301225</v>
+        <v>1.05635498783224</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -668,43 +668,43 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9985099167649563</v>
+        <v>1.040135899073536</v>
       </c>
       <c r="D7">
-        <v>1.020330220796822</v>
+        <v>1.053853461982681</v>
       </c>
       <c r="E7">
-        <v>1.002830206580354</v>
+        <v>1.050138130286204</v>
       </c>
       <c r="F7">
-        <v>0.9793326605435597</v>
+        <v>1.059787112059166</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04600318409571</v>
+        <v>1.065643847680598</v>
       </c>
       <c r="J7">
-        <v>1.017945711302066</v>
+        <v>1.058560074121675</v>
       </c>
       <c r="K7">
-        <v>1.030186395774162</v>
+        <v>1.063339830083903</v>
       </c>
       <c r="L7">
-        <v>1.012891603073178</v>
+        <v>1.059664058145949</v>
       </c>
       <c r="M7">
-        <v>0.9896840048703294</v>
+        <v>1.069211003340966</v>
       </c>
       <c r="N7">
-        <v>1.01939131097212</v>
+        <v>1.022931845808968</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.032433090480284</v>
+        <v>1.055874683889048</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -715,43 +715,43 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9873488261250259</v>
+        <v>1.034572938537871</v>
       </c>
       <c r="D8">
-        <v>1.012473159696042</v>
+        <v>1.049857679548019</v>
       </c>
       <c r="E8">
-        <v>0.9931605799743685</v>
+        <v>1.045553967596017</v>
       </c>
       <c r="F8">
-        <v>0.9643774323255234</v>
+        <v>1.054982661249942</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042679100424573</v>
+        <v>1.063802319180408</v>
       </c>
       <c r="J8">
-        <v>1.009330487073694</v>
+        <v>1.055223671236089</v>
       </c>
       <c r="K8">
-        <v>1.023486783771696</v>
+        <v>1.060402133267939</v>
       </c>
       <c r="L8">
-        <v>1.004433999565436</v>
+        <v>1.056150308988749</v>
       </c>
       <c r="M8">
-        <v>0.9760625780977702</v>
+        <v>1.065466009974988</v>
       </c>
       <c r="N8">
-        <v>1.010763852137164</v>
+        <v>1.021776428401536</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.027700474123843</v>
+        <v>1.053802057438684</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -762,43 +762,43 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9657473509791423</v>
+        <v>1.024336559596535</v>
       </c>
       <c r="D9">
-        <v>0.9972966327679963</v>
+        <v>1.042526768158005</v>
       </c>
       <c r="E9">
-        <v>0.9744305579765902</v>
+        <v>1.037160353932545</v>
       </c>
       <c r="F9">
-        <v>0.9353079836743757</v>
+        <v>1.046187275809127</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036094555441719</v>
+        <v>1.060334560442214</v>
       </c>
       <c r="J9">
-        <v>0.9925704701621794</v>
+        <v>1.049058261047063</v>
       </c>
       <c r="K9">
-        <v>1.010433723020378</v>
+        <v>1.05496560164703</v>
       </c>
       <c r="L9">
-        <v>0.9879525672560787</v>
+        <v>1.049677986905335</v>
       </c>
       <c r="M9">
-        <v>0.9495457551003336</v>
+        <v>1.058572946860717</v>
       </c>
       <c r="N9">
-        <v>0.9939800340792336</v>
+        <v>1.0196361065948</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.018467424860373</v>
+        <v>1.049955082297642</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -806,46 +806,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9498146012906038</v>
+        <v>1.017215620919755</v>
       </c>
       <c r="D10">
-        <v>0.9861480064049547</v>
+        <v>1.037453834710189</v>
       </c>
       <c r="E10">
-        <v>0.9606495655492169</v>
+        <v>1.031356447007489</v>
       </c>
       <c r="F10">
-        <v>0.9136806752924876</v>
+        <v>1.04010658288905</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.031151026997203</v>
+        <v>1.0578787471252</v>
       </c>
       <c r="J10">
-        <v>0.9801712413058565</v>
+        <v>1.044762465268759</v>
       </c>
       <c r="K10">
-        <v>1.000771949401541</v>
+        <v>1.051178247350761</v>
       </c>
       <c r="L10">
-        <v>0.9757676084292558</v>
+        <v>1.045181726525002</v>
       </c>
       <c r="M10">
-        <v>0.9298053944730721</v>
+        <v>1.053787586484831</v>
       </c>
       <c r="N10">
-        <v>0.9815631968957238</v>
+        <v>1.018146578316231</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.011652802738035</v>
+        <v>1.047293796247115</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -856,43 +856,43 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9425628602541214</v>
+        <v>1.014075399171769</v>
       </c>
       <c r="D11">
-        <v>0.9810953976882204</v>
+        <v>1.03523115997757</v>
       </c>
       <c r="E11">
-        <v>0.9544225834485766</v>
+        <v>1.028809759846775</v>
       </c>
       <c r="F11">
-        <v>0.9037437305088337</v>
+        <v>1.037438474443529</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.028889777305739</v>
+        <v>1.056792120106742</v>
       </c>
       <c r="J11">
-        <v>0.9745369466799875</v>
+        <v>1.042874125903694</v>
       </c>
       <c r="K11">
-        <v>0.9963828555558587</v>
+        <v>1.049517907932633</v>
       </c>
       <c r="L11">
-        <v>0.9702584384164018</v>
+        <v>1.043208076635581</v>
       </c>
       <c r="M11">
-        <v>0.9207418670933705</v>
+        <v>1.051687283572588</v>
       </c>
       <c r="N11">
-        <v>0.975920900925223</v>
+        <v>1.01749671998275</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.008583287900414</v>
+        <v>1.046152236932862</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -903,43 +903,43 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9397321216705524</v>
+        <v>1.012884820668526</v>
       </c>
       <c r="D12">
-        <v>0.9791212281940365</v>
+        <v>1.034385043637275</v>
       </c>
       <c r="E12">
-        <v>0.9519733162356202</v>
+        <v>1.02784333423024</v>
       </c>
       <c r="F12">
-        <v>0.8998692549152097</v>
+        <v>1.036426056018427</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.02799971356557</v>
+        <v>1.056374994490696</v>
       </c>
       <c r="J12">
-        <v>0.9723258233953335</v>
+        <v>1.042153707981434</v>
       </c>
       <c r="K12">
-        <v>0.9946596704083863</v>
+        <v>1.048881855011454</v>
       </c>
       <c r="L12">
-        <v>0.968082338342198</v>
+        <v>1.042455858553036</v>
       </c>
       <c r="M12">
-        <v>0.9172039219680017</v>
+        <v>1.050887152143838</v>
       </c>
       <c r="N12">
-        <v>0.9737066375918855</v>
+        <v>1.017246286905994</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.007364852897249</v>
+        <v>1.045702539119536</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -950,43 +950,43 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9403312118273296</v>
+        <v>1.013138428746587</v>
       </c>
       <c r="D13">
-        <v>0.9795380791973668</v>
+        <v>1.034564364438942</v>
       </c>
       <c r="E13">
-        <v>0.9524876172457541</v>
+        <v>1.028048688204352</v>
       </c>
       <c r="F13">
-        <v>0.9006930940901751</v>
+        <v>1.036641198502395</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.028187338105866</v>
+        <v>1.056463208272555</v>
       </c>
       <c r="J13">
-        <v>0.9727918304889502</v>
+        <v>1.042306342508575</v>
       </c>
       <c r="K13">
-        <v>0.9950226928741274</v>
+        <v>1.049016115474752</v>
       </c>
       <c r="L13">
-        <v>0.9685381079844553</v>
+        <v>1.042615252276273</v>
       </c>
       <c r="M13">
-        <v>0.9179553873518892</v>
+        <v>1.051056746207665</v>
       </c>
       <c r="N13">
-        <v>0.9741733064690271</v>
+        <v>1.017298840694302</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.007618952406923</v>
+        <v>1.045795005956679</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -997,43 +997,43 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9423255471479911</v>
+        <v>1.013976242560752</v>
       </c>
       <c r="D14">
-        <v>0.9809294818978378</v>
+        <v>1.035160300562062</v>
       </c>
       <c r="E14">
-        <v>0.9542155357548404</v>
+        <v>1.028729054361749</v>
       </c>
       <c r="F14">
-        <v>0.903420563364423</v>
+        <v>1.03735393417711</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.028814844765015</v>
+        <v>1.056757108674526</v>
       </c>
       <c r="J14">
-        <v>0.9743507544819245</v>
+        <v>1.042813775174339</v>
       </c>
       <c r="K14">
-        <v>0.9962376843736828</v>
+        <v>1.04946441075072</v>
       </c>
       <c r="L14">
-        <v>0.9700739896827855</v>
+        <v>1.043145071055673</v>
       </c>
       <c r="M14">
-        <v>0.9204464238783816</v>
+        <v>1.05162028439004</v>
       </c>
       <c r="N14">
-        <v>0.9757344443128826</v>
+        <v>1.017475525884751</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.008479532387031</v>
+        <v>1.046113361279241</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -1044,43 +1044,43 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9435664189463174</v>
+        <v>1.014495420668909</v>
       </c>
       <c r="D15">
-        <v>0.9817972291614434</v>
+        <v>1.035531448855905</v>
       </c>
       <c r="E15">
-        <v>0.9552985816219965</v>
+        <v>1.029151723605927</v>
       </c>
       <c r="F15">
-        <v>0.9051095270660441</v>
+        <v>1.037796688053934</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.029206631408437</v>
+        <v>1.056940438077461</v>
       </c>
       <c r="J15">
-        <v>0.9753244559415055</v>
+        <v>1.043129844207641</v>
       </c>
       <c r="K15">
-        <v>0.9969968971448385</v>
+        <v>1.049744638553291</v>
       </c>
       <c r="L15">
-        <v>0.9710388403589834</v>
+        <v>1.04347505864192</v>
       </c>
       <c r="M15">
-        <v>0.9219905780458352</v>
+        <v>1.051971189335924</v>
       </c>
       <c r="N15">
-        <v>0.9767095285402212</v>
+        <v>1.017586573866585</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.00902244470829</v>
+        <v>1.046317272306348</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -1091,43 +1091,43 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9504770673332938</v>
+        <v>1.017462097283209</v>
       </c>
       <c r="D16">
-        <v>0.9866246612137315</v>
+        <v>1.037643434172879</v>
       </c>
       <c r="E16">
-        <v>0.9612844869972099</v>
+        <v>1.031564063632596</v>
       </c>
       <c r="F16">
-        <v>0.9145323513016463</v>
+        <v>1.04032393068671</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.031372370303311</v>
+        <v>1.057976093379282</v>
       </c>
       <c r="J16">
-        <v>0.9807196994394672</v>
+        <v>1.044925000482539</v>
       </c>
       <c r="K16">
-        <v>1.001202283268688</v>
+        <v>1.051329952004205</v>
       </c>
       <c r="L16">
-        <v>0.9763509528565814</v>
+        <v>1.04535080798651</v>
       </c>
       <c r="M16">
-        <v>0.9305957340972606</v>
+        <v>1.053966734943201</v>
       </c>
       <c r="N16">
-        <v>0.982112433902793</v>
+        <v>1.018211061676042</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.011999242069317</v>
+        <v>1.047441228576356</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -1138,43 +1138,43 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9546787539865714</v>
+        <v>1.019301295523836</v>
       </c>
       <c r="D17">
-        <v>0.9895637280374008</v>
+        <v>1.038954478023475</v>
       </c>
       <c r="E17">
-        <v>0.9649257330390281</v>
+        <v>1.033061898968365</v>
       </c>
       <c r="F17">
-        <v>0.9202436282367766</v>
+        <v>1.041893177826587</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032684130377177</v>
+        <v>1.058615424121955</v>
       </c>
       <c r="J17">
-        <v>0.9839973082690823</v>
+        <v>1.046037439519671</v>
       </c>
       <c r="K17">
-        <v>1.003757251229183</v>
+        <v>1.052312309998064</v>
       </c>
       <c r="L17">
-        <v>0.9795780197535897</v>
+        <v>1.04651404546598</v>
       </c>
       <c r="M17">
-        <v>0.935811218740242</v>
+        <v>1.055204484386317</v>
       </c>
       <c r="N17">
-        <v>0.9853946973128932</v>
+        <v>1.018598057579346</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.013808448087053</v>
+        <v>1.048138314135221</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -1185,43 +1185,43 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9570284408591369</v>
+        <v>1.020354296341717</v>
       </c>
       <c r="D18">
-        <v>0.9912041765528364</v>
+        <v>1.039701114170181</v>
       </c>
       <c r="E18">
-        <v>0.9669435145675163</v>
+        <v>1.033918007375645</v>
       </c>
       <c r="F18">
-        <v>0.9234476314104814</v>
+        <v>1.042790156026854</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033411256304992</v>
+        <v>1.058976707782391</v>
       </c>
       <c r="J18">
-        <v>0.985819272050605</v>
+        <v>1.046669799346198</v>
       </c>
       <c r="K18">
-        <v>1.005176484499668</v>
+        <v>1.052868022183203</v>
       </c>
       <c r="L18">
-        <v>0.9813583316496916</v>
+        <v>1.047175874735063</v>
       </c>
       <c r="M18">
-        <v>0.9387329566584494</v>
+        <v>1.055909006281071</v>
       </c>
       <c r="N18">
-        <v>0.9872192484919677</v>
+        <v>1.018815497089774</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.01479995144844</v>
+        <v>1.048519754823948</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -1232,43 +1232,43 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9578660003700068</v>
+        <v>1.020721458917281</v>
       </c>
       <c r="D19">
-        <v>0.9917926188715611</v>
+        <v>1.039965119227491</v>
       </c>
       <c r="E19">
-        <v>0.9676779215753807</v>
+        <v>1.034218411742147</v>
       </c>
       <c r="F19">
-        <v>0.9245764396632125</v>
+        <v>1.043104882316662</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033673783796271</v>
+        <v>1.059105454014961</v>
       </c>
       <c r="J19">
-        <v>0.9864764552193881</v>
+        <v>1.046893669389737</v>
       </c>
       <c r="K19">
-        <v>1.005689229203173</v>
+        <v>1.05306686424248</v>
       </c>
       <c r="L19">
-        <v>0.9820112325932359</v>
+        <v>1.047410000846133</v>
       </c>
       <c r="M19">
-        <v>0.939765419808667</v>
+        <v>1.05615807411968</v>
       </c>
       <c r="N19">
-        <v>0.9878773649362305</v>
+        <v>1.018894478998198</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.015169078973753</v>
+        <v>1.048666628543596</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -1279,43 +1279,43 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9542281943165348</v>
+        <v>1.019103813573771</v>
       </c>
       <c r="D20">
-        <v>0.9892480807195809</v>
+        <v>1.038813288569518</v>
       </c>
       <c r="E20">
-        <v>0.9645337035407004</v>
+        <v>1.032900809679201</v>
       </c>
       <c r="F20">
-        <v>0.9196330369363369</v>
+        <v>1.04172440879286</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032543299892056</v>
+        <v>1.058546587509477</v>
       </c>
       <c r="J20">
-        <v>0.9836451581482476</v>
+        <v>1.045917671685776</v>
       </c>
       <c r="K20">
-        <v>1.003482661626518</v>
+        <v>1.052206340766343</v>
       </c>
       <c r="L20">
-        <v>0.9792302335456778</v>
+        <v>1.046388798407905</v>
       </c>
       <c r="M20">
-        <v>0.9352533332390834</v>
+        <v>1.055071224230802</v>
       </c>
       <c r="N20">
-        <v>0.9850420470984947</v>
+        <v>1.018556193132092</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.013612918340889</v>
+        <v>1.048062078335942</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -1326,43 +1326,43 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9418071606427745</v>
+        <v>1.01374306465415</v>
       </c>
       <c r="D21">
-        <v>0.9805724153634983</v>
+        <v>1.03499926733828</v>
       </c>
       <c r="E21">
-        <v>0.953788534736391</v>
+        <v>1.028542148586413</v>
       </c>
       <c r="F21">
-        <v>0.9026937665747286</v>
+        <v>1.037158043754125</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.028656668614909</v>
+        <v>1.056679316187414</v>
       </c>
       <c r="J21">
-        <v>0.9739568101348435</v>
+        <v>1.042677223244445</v>
       </c>
       <c r="K21">
-        <v>0.9959314398625521</v>
+        <v>1.049346579857575</v>
       </c>
       <c r="L21">
-        <v>0.9697016749075604</v>
+        <v>1.043002232592571</v>
       </c>
       <c r="M21">
-        <v>0.9197871269545765</v>
+        <v>1.051468058953524</v>
       </c>
       <c r="N21">
-        <v>0.9753399405196423</v>
+        <v>1.017430796530662</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.008277008744141</v>
+        <v>1.046043370274336</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -1373,43 +1373,43 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9334356567873093</v>
+        <v>1.010282956751626</v>
       </c>
       <c r="D22">
-        <v>0.9747347881098637</v>
+        <v>1.032537304322894</v>
       </c>
       <c r="E22">
-        <v>0.9465252868813888</v>
+        <v>1.025733566109419</v>
       </c>
       <c r="F22">
-        <v>0.8912278798411003</v>
+        <v>1.034215955632937</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.026014320505601</v>
+        <v>1.055460190071411</v>
       </c>
       <c r="J22">
-        <v>0.9674033467410671</v>
+        <v>1.040578362690333</v>
       </c>
       <c r="K22">
-        <v>0.9908239371948506</v>
+        <v>1.047490620909264</v>
       </c>
       <c r="L22">
-        <v>0.9632361150205633</v>
+        <v>1.040811911041827</v>
       </c>
       <c r="M22">
-        <v>0.9093130389398146</v>
+        <v>1.049138753721212</v>
       </c>
       <c r="N22">
-        <v>0.9687771704561544</v>
+        <v>1.016698354404956</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.004651542365696</v>
+        <v>1.044717862138566</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -1420,43 +1420,43 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9378420424597367</v>
+        <v>1.012108552031629</v>
       </c>
       <c r="D23">
-        <v>0.9778002422009</v>
+        <v>1.033829883089784</v>
       </c>
       <c r="E23">
-        <v>0.9503206781353394</v>
+        <v>1.027211653393277</v>
       </c>
       <c r="F23">
-        <v>0.8972929049159469</v>
+        <v>1.035764403381269</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.027400831223034</v>
+        <v>1.056099511400633</v>
       </c>
       <c r="J23">
-        <v>0.970840123810616</v>
+        <v>1.041680281214585</v>
       </c>
       <c r="K23">
-        <v>0.9935013425521085</v>
+        <v>1.048461682401771</v>
       </c>
       <c r="L23">
-        <v>0.9666075848912739</v>
+        <v>1.041961861334189</v>
       </c>
       <c r="M23">
-        <v>0.9148478411935044</v>
+        <v>1.050361962250249</v>
       </c>
       <c r="N23">
-        <v>0.9722188281433456</v>
+        <v>1.017079504155957</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.006534700102628</v>
+        <v>1.045394927138081</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -1464,46 +1464,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9543112788503483</v>
+        <v>1.019167438355784</v>
       </c>
       <c r="D24">
-        <v>0.9892970893142349</v>
+        <v>1.038849213720029</v>
       </c>
       <c r="E24">
-        <v>0.9645656916817734</v>
+        <v>1.032947968265998</v>
       </c>
       <c r="F24">
-        <v>0.9197787032696303</v>
+        <v>1.041773893478654</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.032559611258794</v>
+        <v>1.058560884132237</v>
       </c>
       <c r="J24">
-        <v>0.983689051251269</v>
+        <v>1.04594710733981</v>
       </c>
       <c r="K24">
-        <v>1.003514803736587</v>
+        <v>1.052226793490716</v>
       </c>
       <c r="L24">
-        <v>0.9792450232713588</v>
+        <v>1.046420173536925</v>
       </c>
       <c r="M24">
-        <v>0.9353780189553573</v>
+        <v>1.055105085207137</v>
       </c>
       <c r="N24">
-        <v>0.9850860025347569</v>
+        <v>1.018561135061952</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.013607396971196</v>
+        <v>1.048049574750759</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -1511,46 +1511,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9716921576188503</v>
+        <v>1.027060338221921</v>
       </c>
       <c r="D25">
-        <v>1.001477032929459</v>
+        <v>1.044483480029563</v>
       </c>
       <c r="E25">
-        <v>0.9796200058008671</v>
+        <v>1.039392830596229</v>
       </c>
       <c r="F25">
-        <v>0.9433006605011849</v>
+        <v>1.048526499379417</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037932832427225</v>
+        <v>1.061273791430631</v>
       </c>
       <c r="J25">
-        <v>0.9972112479811972</v>
+        <v>1.050710114710018</v>
       </c>
       <c r="K25">
-        <v>1.014052463054391</v>
+        <v>1.056428375579634</v>
       </c>
       <c r="L25">
-        <v>0.9925431543123968</v>
+        <v>1.051408921531957</v>
       </c>
       <c r="M25">
-        <v>0.9568479230757668</v>
+        <v>1.060415471984103</v>
       </c>
       <c r="N25">
-        <v>0.9986274023350592</v>
+        <v>1.020214850587628</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.021055482314685</v>
+        <v>1.051017394513466</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_0/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_0/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,46 +439,55 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.033092777220222</v>
+        <v>1.030150451822073</v>
       </c>
       <c r="D2">
-        <v>1.048788138990161</v>
+        <v>1.045132846580457</v>
       </c>
       <c r="E2">
-        <v>1.044333518247433</v>
+        <v>1.041621718729789</v>
       </c>
       <c r="F2">
-        <v>1.053703494195917</v>
+        <v>1.050487721748848</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.063300348318059</v>
+        <v>1.061178321195096</v>
       </c>
       <c r="J2">
-        <v>1.054326814715894</v>
+        <v>1.051465302757366</v>
       </c>
       <c r="K2">
-        <v>1.059607180677046</v>
+        <v>1.055997277460552</v>
       </c>
       <c r="L2">
-        <v>1.055207927465652</v>
+        <v>1.052530122756983</v>
       </c>
       <c r="M2">
-        <v>1.064462117317852</v>
+        <v>1.061285792928481</v>
       </c>
       <c r="N2">
-        <v>1.021461607031187</v>
+        <v>1.020501929990314</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.053217527395777</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.050673717660427</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.026716975713071</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -480,46 +495,55 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.03738072213641</v>
+        <v>1.034168225344611</v>
       </c>
       <c r="D3">
-        <v>1.051865654702634</v>
+        <v>1.047904508553624</v>
       </c>
       <c r="E3">
-        <v>1.047862300063207</v>
+        <v>1.044894388773599</v>
       </c>
       <c r="F3">
-        <v>1.057401585739695</v>
+        <v>1.053903349097609</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.064729290931585</v>
+        <v>1.062420168107335</v>
       </c>
       <c r="J3">
-        <v>1.056901744604396</v>
+        <v>1.053768869076704</v>
       </c>
       <c r="K3">
-        <v>1.061875278729593</v>
+        <v>1.057959047092205</v>
       </c>
       <c r="L3">
-        <v>1.057917319449218</v>
+        <v>1.054983339415795</v>
       </c>
       <c r="M3">
-        <v>1.067349132941023</v>
+        <v>1.063890030161275</v>
       </c>
       <c r="N3">
-        <v>1.022354058109281</v>
+        <v>1.021130385801615</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.054818597593328</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.052057919727925</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.027148795823559</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -527,46 +551,55 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.040104575553815</v>
+        <v>1.036722283145891</v>
       </c>
       <c r="D4">
-        <v>1.053824402493368</v>
+        <v>1.049670214153807</v>
       </c>
       <c r="E4">
-        <v>1.050109517347122</v>
+        <v>1.046980488094356</v>
       </c>
       <c r="F4">
-        <v>1.059756866389513</v>
+        <v>1.056080736989602</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.065627954376447</v>
+        <v>1.063200580442755</v>
       </c>
       <c r="J4">
-        <v>1.058535207625277</v>
+        <v>1.05523109427287</v>
       </c>
       <c r="K4">
-        <v>1.063313876895706</v>
+        <v>1.059203961453067</v>
       </c>
       <c r="L4">
-        <v>1.059638562526114</v>
+        <v>1.056543130574434</v>
       </c>
       <c r="M4">
-        <v>1.069183851486059</v>
+        <v>1.06554634323554</v>
       </c>
       <c r="N4">
-        <v>1.022920172730726</v>
+        <v>1.021529440819577</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.055836647981397</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.052939109780034</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.027420577642597</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -574,46 +607,55 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.041242833957433</v>
+        <v>1.037789770063028</v>
       </c>
       <c r="D5">
-        <v>1.054645800194996</v>
+        <v>1.050411113017781</v>
       </c>
       <c r="E5">
-        <v>1.051050738572661</v>
+        <v>1.047854498367367</v>
       </c>
       <c r="F5">
-        <v>1.060743496076392</v>
+        <v>1.05699318845521</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.06600298939851</v>
+        <v>1.063526237731964</v>
       </c>
       <c r="J5">
-        <v>1.059219096794144</v>
+        <v>1.055843472672584</v>
       </c>
       <c r="K5">
-        <v>1.063917366301408</v>
+        <v>1.059726612676049</v>
       </c>
       <c r="L5">
-        <v>1.060359574600941</v>
+        <v>1.057196732161701</v>
       </c>
       <c r="M5">
-        <v>1.06995255130351</v>
+        <v>1.066240586074757</v>
       </c>
       <c r="N5">
-        <v>1.023158091598492</v>
+        <v>1.021697223504117</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.056270365904774</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.053316389776686</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.027534834268625</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -621,46 +663,55 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.041439233018951</v>
+        <v>1.037973702842084</v>
       </c>
       <c r="D6">
-        <v>1.054789990145447</v>
+        <v>1.050541290625526</v>
       </c>
       <c r="E6">
-        <v>1.051214220551753</v>
+        <v>1.048006108429475</v>
       </c>
       <c r="F6">
-        <v>1.060914972294444</v>
+        <v>1.057151653994495</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.066069641970817</v>
+        <v>1.06358425907753</v>
       </c>
       <c r="J6">
-        <v>1.059339311280863</v>
+        <v>1.055951102055161</v>
       </c>
       <c r="K6">
-        <v>1.064024946696412</v>
+        <v>1.059820124703839</v>
       </c>
       <c r="L6">
-        <v>1.060486076241285</v>
+        <v>1.057311331040077</v>
       </c>
       <c r="M6">
-        <v>1.070087427626536</v>
+        <v>1.066362406850156</v>
       </c>
       <c r="N6">
-        <v>1.023201021425393</v>
+        <v>1.021727477391384</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.05635498783224</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.053391942414834</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.027556094235105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -668,46 +719,55 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.040135899073536</v>
+        <v>1.036760821939903</v>
       </c>
       <c r="D7">
-        <v>1.053853461982681</v>
+        <v>1.049704274090117</v>
       </c>
       <c r="E7">
-        <v>1.050138130286204</v>
+        <v>1.047015598400675</v>
       </c>
       <c r="F7">
-        <v>1.059787112059166</v>
+        <v>1.056116997203279</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.065643847680598</v>
+        <v>1.063220174026241</v>
       </c>
       <c r="J7">
-        <v>1.058560074121675</v>
+        <v>1.055262974006587</v>
       </c>
       <c r="K7">
-        <v>1.063339830083903</v>
+        <v>1.059234843887995</v>
       </c>
       <c r="L7">
-        <v>1.059664058145949</v>
+        <v>1.056575040176664</v>
       </c>
       <c r="M7">
-        <v>1.069211003340966</v>
+        <v>1.065579430721033</v>
       </c>
       <c r="N7">
-        <v>1.022931845808968</v>
+        <v>1.021566709358278</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.055874683889048</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.052982649633804</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.027430704482932</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -715,46 +775,55 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.034572938537871</v>
+        <v>1.031566475703266</v>
       </c>
       <c r="D8">
-        <v>1.049857679548019</v>
+        <v>1.046119448550064</v>
       </c>
       <c r="E8">
-        <v>1.045553967596017</v>
+        <v>1.042780612368171</v>
       </c>
       <c r="F8">
-        <v>1.054982661249942</v>
+        <v>1.051695011606448</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.063802319180408</v>
+        <v>1.061631689704533</v>
       </c>
       <c r="J8">
-        <v>1.055223671236089</v>
+        <v>1.052297011182145</v>
       </c>
       <c r="K8">
-        <v>1.060402133267939</v>
+        <v>1.056708941971361</v>
       </c>
       <c r="L8">
-        <v>1.056150308988749</v>
+        <v>1.053410672734762</v>
       </c>
       <c r="M8">
-        <v>1.065466009974988</v>
+        <v>1.06221747395767</v>
       </c>
       <c r="N8">
-        <v>1.021776428401536</v>
+        <v>1.020812178623014</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.053802057438684</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.051201646522398</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.026880393047259</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -762,46 +831,55 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.024336559596535</v>
+        <v>1.021992320897458</v>
       </c>
       <c r="D9">
-        <v>1.042526768158005</v>
+        <v>1.039530653318519</v>
       </c>
       <c r="E9">
-        <v>1.037160353932545</v>
+        <v>1.035013652656596</v>
       </c>
       <c r="F9">
-        <v>1.046187275809127</v>
+        <v>1.043588601942587</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.060334560442214</v>
+        <v>1.058617266588674</v>
       </c>
       <c r="J9">
-        <v>1.049058261047063</v>
+        <v>1.046791680384878</v>
       </c>
       <c r="K9">
-        <v>1.05496560164703</v>
+        <v>1.052013353864367</v>
       </c>
       <c r="L9">
-        <v>1.049677986905335</v>
+        <v>1.047563098287011</v>
       </c>
       <c r="M9">
-        <v>1.058572946860717</v>
+        <v>1.056011965461549</v>
       </c>
       <c r="N9">
-        <v>1.0196361065948</v>
+        <v>1.01931881603325</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.049955082297642</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.047878266846497</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.02583227916181</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -809,46 +887,55 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.017215620919755</v>
+        <v>1.015389526866991</v>
       </c>
       <c r="D10">
-        <v>1.037453834710189</v>
+        <v>1.035016936645976</v>
       </c>
       <c r="E10">
-        <v>1.031356447007489</v>
+        <v>1.029697794932355</v>
       </c>
       <c r="F10">
-        <v>1.04010658288905</v>
+        <v>1.03803712239713</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.0578787471252</v>
+        <v>1.056505128572325</v>
       </c>
       <c r="J10">
-        <v>1.044762465268759</v>
+        <v>1.043005586783929</v>
       </c>
       <c r="K10">
-        <v>1.051178247350761</v>
+        <v>1.048781478539453</v>
       </c>
       <c r="L10">
-        <v>1.045181726525002</v>
+        <v>1.043550779291435</v>
       </c>
       <c r="M10">
-        <v>1.053787586484831</v>
+        <v>1.051751965767717</v>
       </c>
       <c r="N10">
-        <v>1.018146578316231</v>
+        <v>1.018408047699702</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.047293796247115</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.045611419936873</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.025105505944488</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -856,46 +943,55 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.014075399171769</v>
+        <v>1.012552503912576</v>
       </c>
       <c r="D11">
-        <v>1.03523115997757</v>
+        <v>1.033098510708024</v>
       </c>
       <c r="E11">
-        <v>1.028809759846775</v>
+        <v>1.027435812770883</v>
       </c>
       <c r="F11">
-        <v>1.037438474443529</v>
+        <v>1.035668424752388</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.056792120106742</v>
+        <v>1.055609718211823</v>
       </c>
       <c r="J11">
-        <v>1.042874125903694</v>
+        <v>1.041412249650636</v>
       </c>
       <c r="K11">
-        <v>1.049517907932633</v>
+        <v>1.047422113410129</v>
       </c>
       <c r="L11">
-        <v>1.043208076635581</v>
+        <v>1.041858235990379</v>
       </c>
       <c r="M11">
-        <v>1.051687283572588</v>
+        <v>1.049947640490273</v>
       </c>
       <c r="N11">
-        <v>1.01749671998275</v>
+        <v>1.018214706817978</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.046152236932862</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.044685896134464</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.024809198788214</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -903,46 +999,55 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.012884820668526</v>
+        <v>1.011484885862027</v>
       </c>
       <c r="D12">
-        <v>1.034385043637275</v>
+        <v>1.032373828513805</v>
       </c>
       <c r="E12">
-        <v>1.02784333423024</v>
+        <v>1.02658505811854</v>
       </c>
       <c r="F12">
-        <v>1.036426056018427</v>
+        <v>1.034776706499838</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.056374994490696</v>
+        <v>1.055269241280011</v>
       </c>
       <c r="J12">
-        <v>1.042153707981434</v>
+        <v>1.040811014449981</v>
       </c>
       <c r="K12">
-        <v>1.048881855011454</v>
+        <v>1.046906012826453</v>
       </c>
       <c r="L12">
-        <v>1.042455858553036</v>
+        <v>1.041220059067447</v>
       </c>
       <c r="M12">
-        <v>1.050887152143838</v>
+        <v>1.049266650093709</v>
       </c>
       <c r="N12">
-        <v>1.017246286905994</v>
+        <v>1.018156851209698</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.045702539119536</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.044321012388184</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.024695659617815</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -950,46 +1055,55 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.013138428746587</v>
+        <v>1.011712104337341</v>
       </c>
       <c r="D13">
-        <v>1.034564364438942</v>
+        <v>1.032527105156733</v>
       </c>
       <c r="E13">
-        <v>1.028048688204352</v>
+        <v>1.026765609658955</v>
       </c>
       <c r="F13">
-        <v>1.036641198502395</v>
+        <v>1.034965963137249</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.056463208272555</v>
+        <v>1.055341017776446</v>
       </c>
       <c r="J13">
-        <v>1.042306342508575</v>
+        <v>1.040938086606518</v>
       </c>
       <c r="K13">
-        <v>1.049016115474752</v>
+        <v>1.047014553042123</v>
       </c>
       <c r="L13">
-        <v>1.042615252276273</v>
+        <v>1.041355005845542</v>
       </c>
       <c r="M13">
-        <v>1.051056746207665</v>
+        <v>1.049410698837205</v>
       </c>
       <c r="N13">
-        <v>1.017298840694302</v>
+        <v>1.01816769314971</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.045795005956679</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.044395049816097</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.024719173491253</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -997,46 +1111,55 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.013976242560752</v>
+        <v>1.012463491601808</v>
       </c>
       <c r="D14">
-        <v>1.035160300562062</v>
+        <v>1.033037679694689</v>
       </c>
       <c r="E14">
-        <v>1.028729054361749</v>
+        <v>1.027364659506933</v>
       </c>
       <c r="F14">
-        <v>1.03735393417711</v>
+        <v>1.035593851112392</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.056757108674526</v>
+        <v>1.05558103695389</v>
       </c>
       <c r="J14">
-        <v>1.042813775174339</v>
+        <v>1.041361739057157</v>
       </c>
       <c r="K14">
-        <v>1.04946441075072</v>
+        <v>1.047378525054046</v>
       </c>
       <c r="L14">
-        <v>1.043145071055673</v>
+        <v>1.041804650790981</v>
       </c>
       <c r="M14">
-        <v>1.05162028439004</v>
+        <v>1.049890482002708</v>
       </c>
       <c r="N14">
-        <v>1.017475525884751</v>
+        <v>1.018209227272125</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.046113361279241</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.044653922276452</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.024799452892546</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1044,46 +1167,55 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.014495420668909</v>
+        <v>1.012929839877539</v>
       </c>
       <c r="D15">
-        <v>1.035531448855905</v>
+        <v>1.033356544589691</v>
       </c>
       <c r="E15">
-        <v>1.029151723605927</v>
+        <v>1.027737584642204</v>
       </c>
       <c r="F15">
-        <v>1.037796688053934</v>
+        <v>1.035984677340102</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.056940438077461</v>
+        <v>1.05573137200779</v>
       </c>
       <c r="J15">
-        <v>1.043129844207641</v>
+        <v>1.041626544974291</v>
       </c>
       <c r="K15">
-        <v>1.049744638553291</v>
+        <v>1.047607086232562</v>
       </c>
       <c r="L15">
-        <v>1.04347505864192</v>
+        <v>1.042085574443563</v>
       </c>
       <c r="M15">
-        <v>1.051971189335924</v>
+        <v>1.050190108775797</v>
       </c>
       <c r="N15">
-        <v>1.017586573866585</v>
+        <v>1.018238731579012</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.046317272306348</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.044821875515124</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.024850618036627</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1091,46 +1223,55 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.017462097283209</v>
+        <v>1.01561162236826</v>
       </c>
       <c r="D16">
-        <v>1.037643434172879</v>
+        <v>1.035182637289487</v>
       </c>
       <c r="E16">
-        <v>1.031564063632596</v>
+        <v>1.029882109260564</v>
       </c>
       <c r="F16">
-        <v>1.04032393068671</v>
+        <v>1.038230432636097</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.057976093379282</v>
+        <v>1.056587302996102</v>
       </c>
       <c r="J16">
-        <v>1.044925000482539</v>
+        <v>1.043144396283884</v>
       </c>
       <c r="K16">
-        <v>1.051329952004205</v>
+        <v>1.048909542211</v>
       </c>
       <c r="L16">
-        <v>1.04535080798651</v>
+        <v>1.043696852086977</v>
       </c>
       <c r="M16">
-        <v>1.053966734943201</v>
+        <v>1.051907352879785</v>
       </c>
       <c r="N16">
-        <v>1.018211061676042</v>
+        <v>1.018438240109365</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.047441228576356</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.045746144646098</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.02513936458409</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1138,46 +1279,55 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.019301295523836</v>
+        <v>1.017289527176779</v>
       </c>
       <c r="D17">
-        <v>1.038954478023475</v>
+        <v>1.036328248364735</v>
       </c>
       <c r="E17">
-        <v>1.033061898968365</v>
+        <v>1.031228303699147</v>
       </c>
       <c r="F17">
-        <v>1.041893177826587</v>
+        <v>1.039638788110789</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.058615424121955</v>
+        <v>1.057123272869888</v>
       </c>
       <c r="J17">
-        <v>1.046037439519671</v>
+        <v>1.044099133110731</v>
       </c>
       <c r="K17">
-        <v>1.052312309998064</v>
+        <v>1.049727944976999</v>
       </c>
       <c r="L17">
-        <v>1.04651404546598</v>
+        <v>1.044710080375986</v>
       </c>
       <c r="M17">
-        <v>1.055204484386317</v>
+        <v>1.052985756015493</v>
       </c>
       <c r="N17">
-        <v>1.018598057579346</v>
+        <v>1.018601489123067</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.048138314135221</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.04632755776002</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.025322024857185</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1185,46 +1335,55 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.020354296341717</v>
+        <v>1.018256778635</v>
       </c>
       <c r="D18">
-        <v>1.039701114170181</v>
+        <v>1.036985097740016</v>
       </c>
       <c r="E18">
-        <v>1.033918007375645</v>
+        <v>1.032003859746822</v>
       </c>
       <c r="F18">
-        <v>1.042790156026854</v>
+        <v>1.040449481441222</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.058976707782391</v>
+        <v>1.057428811969899</v>
       </c>
       <c r="J18">
-        <v>1.046669799346198</v>
+        <v>1.044647377356479</v>
       </c>
       <c r="K18">
-        <v>1.052868022183203</v>
+        <v>1.050194562827853</v>
       </c>
       <c r="L18">
-        <v>1.047175874735063</v>
+        <v>1.045292121419263</v>
       </c>
       <c r="M18">
-        <v>1.055909006281071</v>
+        <v>1.053604713251008</v>
       </c>
       <c r="N18">
-        <v>1.018815497089774</v>
+        <v>1.018707274914365</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.048519754823948</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.04664486209311</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.02542487714483</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1232,46 +1391,55 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.020721458917281</v>
+        <v>1.018594572153949</v>
       </c>
       <c r="D19">
-        <v>1.039965119227491</v>
+        <v>1.03721830548641</v>
       </c>
       <c r="E19">
-        <v>1.034218411742147</v>
+        <v>1.032276577794546</v>
       </c>
       <c r="F19">
-        <v>1.043104882316662</v>
+        <v>1.040734587550705</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.059105454014961</v>
+        <v>1.057538437123208</v>
       </c>
       <c r="J19">
-        <v>1.046893669389737</v>
+        <v>1.04484241361044</v>
       </c>
       <c r="K19">
-        <v>1.05306686424248</v>
+        <v>1.050362835398219</v>
       </c>
       <c r="L19">
-        <v>1.047410000846133</v>
+        <v>1.045498815079841</v>
       </c>
       <c r="M19">
-        <v>1.05615807411968</v>
+        <v>1.053824398909759</v>
       </c>
       <c r="N19">
-        <v>1.018894478998198</v>
+        <v>1.018749426701608</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.048666628543596</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.046770748587075</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.025463410737299</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1279,46 +1447,55 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.019103813573771</v>
+        <v>1.017108798347873</v>
       </c>
       <c r="D20">
-        <v>1.038813288569518</v>
+        <v>1.036204377556318</v>
       </c>
       <c r="E20">
-        <v>1.032900809679201</v>
+        <v>1.031082977949147</v>
       </c>
       <c r="F20">
-        <v>1.04172440879286</v>
+        <v>1.039486794592182</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.058546587509477</v>
+        <v>1.05706523296228</v>
       </c>
       <c r="J20">
-        <v>1.045917671685776</v>
+        <v>1.04399577072452</v>
       </c>
       <c r="K20">
-        <v>1.052206340766343</v>
+        <v>1.049639149683198</v>
       </c>
       <c r="L20">
-        <v>1.046388798407905</v>
+        <v>1.044600436628342</v>
       </c>
       <c r="M20">
-        <v>1.055071224230802</v>
+        <v>1.052869120117858</v>
       </c>
       <c r="N20">
-        <v>1.018556193132092</v>
+        <v>1.018582097111573</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.048062078335942</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.046263334182908</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.025302025405836</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1326,46 +1503,55 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.01374306465415</v>
+        <v>1.01227857880176</v>
       </c>
       <c r="D21">
-        <v>1.03499926733828</v>
+        <v>1.032919309681295</v>
       </c>
       <c r="E21">
-        <v>1.028542148586413</v>
+        <v>1.027223029995999</v>
       </c>
       <c r="F21">
-        <v>1.037158043754125</v>
+        <v>1.035443084441439</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.056679316187414</v>
+        <v>1.055531388568768</v>
       </c>
       <c r="J21">
-        <v>1.042677223244445</v>
+        <v>1.041271759025446</v>
       </c>
       <c r="K21">
-        <v>1.049346579857575</v>
+        <v>1.047302748686637</v>
       </c>
       <c r="L21">
-        <v>1.043002232592571</v>
+        <v>1.041706378147448</v>
       </c>
       <c r="M21">
-        <v>1.051468058953524</v>
+        <v>1.049782712673345</v>
       </c>
       <c r="N21">
-        <v>1.017430796530662</v>
+        <v>1.018271559870704</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.046043370274336</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.044614983806</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.024787815987022</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1373,46 +1559,55 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.010282956751626</v>
+        <v>1.009162732759163</v>
       </c>
       <c r="D22">
-        <v>1.032537304322894</v>
+        <v>1.030800096778808</v>
       </c>
       <c r="E22">
-        <v>1.025733566109419</v>
+        <v>1.024738787412234</v>
       </c>
       <c r="F22">
-        <v>1.034215955632937</v>
+        <v>1.032840412645824</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.055460190071411</v>
+        <v>1.054527666317371</v>
       </c>
       <c r="J22">
-        <v>1.040578362690333</v>
+        <v>1.039505966569053</v>
       </c>
       <c r="K22">
-        <v>1.047490620909264</v>
+        <v>1.045785132712683</v>
       </c>
       <c r="L22">
-        <v>1.040811911041827</v>
+        <v>1.039835594280065</v>
       </c>
       <c r="M22">
-        <v>1.049138753721212</v>
+        <v>1.04778820906103</v>
       </c>
       <c r="N22">
-        <v>1.016698354404956</v>
+        <v>1.018056947477809</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.044717862138566</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.043527389111697</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.024449972689959</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1420,46 +1615,55 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.012108552031629</v>
+        <v>1.01079105256697</v>
       </c>
       <c r="D23">
-        <v>1.033829883089784</v>
+        <v>1.031899518019408</v>
       </c>
       <c r="E23">
-        <v>1.027211653393277</v>
+        <v>1.026031103000447</v>
       </c>
       <c r="F23">
-        <v>1.035764403381269</v>
+        <v>1.034195822753297</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.056099511400633</v>
+        <v>1.055044885341023</v>
       </c>
       <c r="J23">
-        <v>1.041680281214585</v>
+        <v>1.040417352252502</v>
       </c>
       <c r="K23">
-        <v>1.048461682401771</v>
+        <v>1.046565650356943</v>
       </c>
       <c r="L23">
-        <v>1.041961861334189</v>
+        <v>1.04080264127615</v>
       </c>
       <c r="M23">
-        <v>1.050361962250249</v>
+        <v>1.048821132295562</v>
       </c>
       <c r="N23">
-        <v>1.017079504155957</v>
+        <v>1.018120425822091</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.045394927138081</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.044068786515253</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.024619498528212</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1467,46 +1671,55 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.019167438355784</v>
+        <v>1.017168368777731</v>
       </c>
       <c r="D24">
-        <v>1.038849213720029</v>
+        <v>1.036235476553204</v>
       </c>
       <c r="E24">
-        <v>1.032947968265998</v>
+        <v>1.031126562178889</v>
       </c>
       <c r="F24">
-        <v>1.041773893478654</v>
+        <v>1.039532068776224</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.058560884132237</v>
+        <v>1.057076663868175</v>
       </c>
       <c r="J24">
-        <v>1.04594710733981</v>
+        <v>1.044021185797607</v>
       </c>
       <c r="K24">
-        <v>1.052226793490716</v>
+        <v>1.049654796662393</v>
       </c>
       <c r="L24">
-        <v>1.046420173536925</v>
+        <v>1.044628254295701</v>
       </c>
       <c r="M24">
-        <v>1.055105085207137</v>
+        <v>1.052898787929887</v>
       </c>
       <c r="N24">
-        <v>1.018561135061952</v>
+        <v>1.018581430631134</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.048049574750759</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.046244742526559</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.025301940272307</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1514,43 +1727,52 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.027060338221921</v>
+        <v>1.024524057512063</v>
       </c>
       <c r="D25">
-        <v>1.044483480029563</v>
+        <v>1.041278236932745</v>
       </c>
       <c r="E25">
-        <v>1.039392830596229</v>
+        <v>1.03706464052638</v>
       </c>
       <c r="F25">
-        <v>1.048526499379417</v>
+        <v>1.045730681915081</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.061273791430631</v>
+        <v>1.059427872523732</v>
       </c>
       <c r="J25">
-        <v>1.050710114710018</v>
+        <v>1.048253366721818</v>
       </c>
       <c r="K25">
-        <v>1.056428375579634</v>
+        <v>1.053267856987273</v>
       </c>
       <c r="L25">
-        <v>1.051408921531957</v>
+        <v>1.049113586865356</v>
       </c>
       <c r="M25">
-        <v>1.060415471984103</v>
+        <v>1.05765826803139</v>
       </c>
       <c r="N25">
-        <v>1.020214850587628</v>
+        <v>1.019687435546681</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.051017394513466</v>
+        <v>1.048796148299576</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.026116672586927</v>
       </c>
     </row>
   </sheetData>
